--- a/package/data.xlsx
+++ b/package/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Download\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Program\Code\git\DPlayer-xlsx\package\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C29538B-0F6F-4905-A20B-1BDBB568275F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3815C4B5-54C5-43E9-BD42-DD3254E25F8C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{2E7BFE13-06AC-4DA3-8DDA-499DD76520ED}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="362">
   <si>
     <t>.mp4</t>
   </si>
@@ -943,9 +943,6 @@
     <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/07</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/08</t>
-  </si>
-  <si>
     <t>pic</t>
   </si>
   <si>
@@ -968,17 +965,370 @@
   </si>
   <si>
     <t>https://i.loli.net/2019/01/05/5c30496ae0be7.jpg</t>
+  </si>
+  <si>
+    <t>DARLING in the FRANXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动漫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/02</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/03</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/04</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/05</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/06</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/07</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/08</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/09</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/10</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/11</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/12</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/13</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/14</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/15</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/16</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/17</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/18</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/19</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/20</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/21</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/22</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/23</t>
+  </si>
+  <si>
+    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/24</t>
+  </si>
+  <si>
+    <t>第1话：兩位孤獨者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2话：連接的意義</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=29892777</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.loli.net/2019/01/08/5c344ea81f560.jpg</t>
+  </si>
+  <si>
+    <t>https://i.loli.net/2019/01/08/5c344ea81f560.jpg</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作02的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到了哦，我的DARLING”</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作03的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_һ熷ʁ_x0000__x0000__x0000__x0000__x0000_?_x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作04的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_һ熷ʁ_x0000__x0000__x0000__x0000__x0000_?_x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作05的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_һ熷ʁ_x0000__x0000__x0000__x0000__x0000_?_x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作06的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到¼_x0000_ʭ耀_x0000_텯¼_x0000_寐玜ʁ</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作07的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000__xDBD0_玞ʁ_x0000_✐玐ʁ_x0000__xDD10_玞ʁ</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作08的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008__x0000__x0016__x0000__x0002__x0000__x0008__x0000__x0016__x0000_@_x0000__x0008_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作09的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到¼_x0000_ʭ耀_x0000_텯¼_x0000_寐玜ʁ</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作10的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到我的DARLING”_x0000__x0000__x0005_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作11的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作12的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_媐玜ʁ_x0000_✐玐ʁ_x0000_寐玜ʁ</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作13的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作14的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_һ熷ʁ_x0000__x0000__x0000__x0000__x0000_?_x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作15的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作16的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作17的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_뫀玜ʁ_x0000_✐玐ʁ_x0000_밀玜ʁ</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作18的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到我的DARLING”_x0000_玜ʁ</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作19的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_һ熷ʁ_x0000__x0000__x0000__x0000__x0000_?_x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作20的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_һ熷ʁ_x0000__x0000__x0000__x0000__x0000_?_x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作21的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008__x0000__x0016__x0000__x0002__x0000__x0008__x0000__x0016__x0000_@_x0000__x0008_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作22的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ_x0000_һ熷ʁ_x0000__x0000__x0000__x0016__x0000_?_x0000__x0008_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作23的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作24的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</t>
+  </si>
+  <si>
+    <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作25的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008__x0000__x0016__x0000__x0002__x0000__x0008__x0000__x0016__x0000_@_x0000__x0008_</t>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=30219063</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=30670211</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=31144490</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=31692630</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=32143511</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=32618520</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=33204555</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=33712259</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=34221660</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=34768082</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=35330667</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第12话：花園/起始之庭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第11话：調換搭檔</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3话：戰鬥人偶</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4话：比翼雙飛</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第5话：你的莖刺 對我刻下印記</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第6话：DARLING in the FRANXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第7话：流星MORATORIUM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第8话：男生X女生</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第9话：TRIANGLE BOMB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第10话：永遠的都市</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第13话：魔物與王子殿下</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第14话：罪與告白</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第15话：比翼鳥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第16话：我們的日常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第17话：樂園</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第18话：櫻花綻開之時</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第19话：偽人類們</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第20话：新世界</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第21话：為了最愛的你</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第22话：觀星者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第23话：DARLING in the FRANXX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第24话：不要離開我</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=35955160</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=36514990</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=37096269</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=38263183</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=38862289</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=39470873</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=40120683</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=41316760</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=42332626</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=43252925</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=44248375</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.prprpr.me/dplayer/v3/bilibili?cid=45267295</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -986,7 +1336,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -994,13 +1344,13 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1364,27 +1714,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A517AB9-192F-4BD8-8CE5-F66CA1C9A35C}">
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView tabSelected="1" topLeftCell="E61" workbookViewId="0">
+      <selection activeCell="I94" sqref="I94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1"/>
-    <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="3" max="3" width="34.125" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="50" customWidth="1"/>
-    <col min="10" max="10" width="21.85546875" customWidth="1"/>
-    <col min="11" max="11" width="15.7109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
+    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>88</v>
       </c>
@@ -1413,14 +1763,14 @@
         <v>120</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1455,7 +1805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1490,7 +1840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1525,7 +1875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1560,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1595,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1624,13 +1974,13 @@
         <v>121</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K7" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1659,13 +2009,13 @@
         <v>122</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K8" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1694,13 +2044,13 @@
         <v>123</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K9" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1729,13 +2079,13 @@
         <v>124</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K10" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1764,13 +2114,13 @@
         <v>125</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K11" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75">
+    <row r="12" spans="1:12" ht="18.75" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1799,13 +2149,13 @@
         <v>126</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K12" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1834,13 +2184,13 @@
         <v>127</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1869,13 +2219,13 @@
         <v>128</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K14" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1904,13 +2254,13 @@
         <v>129</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K15" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1939,13 +2289,13 @@
         <v>130</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K16" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5">
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1974,13 +2324,13 @@
         <v>131</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K17" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2009,13 +2359,13 @@
         <v>216</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="K18" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2044,13 +2394,13 @@
         <v>132</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K19" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2079,13 +2429,13 @@
         <v>132</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K20" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2114,13 +2464,13 @@
         <v>132</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K21" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2149,13 +2499,13 @@
         <v>132</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K22" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2184,13 +2534,13 @@
         <v>132</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K23" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2219,13 +2569,13 @@
         <v>132</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K24" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2254,13 +2604,13 @@
         <v>132</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K25" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2289,13 +2639,13 @@
         <v>132</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K26" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2324,13 +2674,13 @@
         <v>132</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K27" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2359,13 +2709,13 @@
         <v>132</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K28" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2394,13 +2744,13 @@
         <v>132</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K29" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2429,13 +2779,13 @@
         <v>132</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K30" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2464,13 +2814,13 @@
         <v>132</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K31" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2499,13 +2849,13 @@
         <v>132</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K32" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2534,13 +2884,13 @@
         <v>217</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K33" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2569,13 +2919,13 @@
         <v>219</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K34" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2604,13 +2954,13 @@
         <v>220</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K35" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2639,13 +2989,13 @@
         <v>221</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K36" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2674,13 +3024,13 @@
         <v>222</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K37" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2709,13 +3059,13 @@
         <v>223</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K38" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2744,13 +3094,13 @@
         <v>224</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K39" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2779,13 +3129,13 @@
         <v>225</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K40" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2814,13 +3164,13 @@
         <v>226</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K41" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2849,13 +3199,13 @@
         <v>227</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K42" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2884,13 +3234,13 @@
         <v>218</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K43" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2919,13 +3269,13 @@
         <v>228</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K44" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2954,13 +3304,13 @@
         <v>229</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K45" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2989,13 +3339,13 @@
         <v>230</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K46" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3024,13 +3374,13 @@
         <v>231</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K47" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3059,13 +3409,13 @@
         <v>232</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K48" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3094,13 +3444,13 @@
         <v>233</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K49" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3129,13 +3479,13 @@
         <v>234</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K50" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3164,13 +3514,13 @@
         <v>235</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K51" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3199,13 +3549,13 @@
         <v>236</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K52" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3234,13 +3584,13 @@
         <v>237</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K53" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3269,13 +3619,13 @@
         <v>238</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K54" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3304,13 +3654,13 @@
         <v>239</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K55" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3339,13 +3689,13 @@
         <v>240</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="K56" s="3">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3374,13 +3724,13 @@
         <v>241</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K57" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3409,13 +3759,13 @@
         <v>242</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K58" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3444,13 +3794,13 @@
         <v>243</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K59" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3479,13 +3829,13 @@
         <v>243</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K60" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3514,13 +3864,13 @@
         <v>244</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K61" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3549,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K62" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3584,13 +3934,13 @@
         <v>245</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K63" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3619,13 +3969,13 @@
         <v>132</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K64" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3654,13 +4004,13 @@
         <v>132</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K65" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3689,13 +4039,13 @@
         <v>132</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K66" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3724,13 +4074,13 @@
         <v>132</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K67" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3759,13 +4109,13 @@
         <v>132</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K68" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3794,13 +4144,13 @@
         <v>132</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K69" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3829,13 +4179,13 @@
         <v>132</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K70" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3849,7 +4199,7 @@
         <v>203</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -3864,10 +4214,850 @@
         <v>132</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K71" s="3">
         <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>263</v>
+      </c>
+      <c r="C72" t="s">
+        <v>262</v>
+      </c>
+      <c r="D72" t="s">
+        <v>288</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F72" t="s">
+        <v>0</v>
+      </c>
+      <c r="G72" t="s">
+        <v>293</v>
+      </c>
+      <c r="H72">
+        <v>2018</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K72" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>263</v>
+      </c>
+      <c r="C73" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" t="s">
+        <v>289</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73" t="s">
+        <v>0</v>
+      </c>
+      <c r="G73" t="s">
+        <v>294</v>
+      </c>
+      <c r="H73">
+        <v>2018</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="K73" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>263</v>
+      </c>
+      <c r="C74" t="s">
+        <v>262</v>
+      </c>
+      <c r="D74" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" t="s">
+        <v>295</v>
+      </c>
+      <c r="H74">
+        <v>2018</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K74" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>263</v>
+      </c>
+      <c r="C75" t="s">
+        <v>262</v>
+      </c>
+      <c r="D75" t="s">
+        <v>331</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" t="s">
+        <v>0</v>
+      </c>
+      <c r="G75" t="s">
+        <v>296</v>
+      </c>
+      <c r="H75">
+        <v>2018</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K75" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>263</v>
+      </c>
+      <c r="C76" t="s">
+        <v>262</v>
+      </c>
+      <c r="D76" t="s">
+        <v>332</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" t="s">
+        <v>0</v>
+      </c>
+      <c r="G76" t="s">
+        <v>297</v>
+      </c>
+      <c r="H76">
+        <v>2018</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K76" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>263</v>
+      </c>
+      <c r="C77" t="s">
+        <v>262</v>
+      </c>
+      <c r="D77" t="s">
+        <v>333</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F77" t="s">
+        <v>0</v>
+      </c>
+      <c r="G77" t="s">
+        <v>298</v>
+      </c>
+      <c r="H77">
+        <v>2018</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K77" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" t="s">
+        <v>262</v>
+      </c>
+      <c r="D78" t="s">
+        <v>334</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F78" t="s">
+        <v>0</v>
+      </c>
+      <c r="G78" t="s">
+        <v>299</v>
+      </c>
+      <c r="H78">
+        <v>2018</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K78" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>263</v>
+      </c>
+      <c r="C79" t="s">
+        <v>262</v>
+      </c>
+      <c r="D79" t="s">
+        <v>335</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F79" t="s">
+        <v>0</v>
+      </c>
+      <c r="G79" t="s">
+        <v>300</v>
+      </c>
+      <c r="H79">
+        <v>2018</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K79" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>263</v>
+      </c>
+      <c r="C80" t="s">
+        <v>262</v>
+      </c>
+      <c r="D80" t="s">
+        <v>336</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F80" t="s">
+        <v>0</v>
+      </c>
+      <c r="G80" t="s">
+        <v>301</v>
+      </c>
+      <c r="H80">
+        <v>2018</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K80" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>263</v>
+      </c>
+      <c r="C81" t="s">
+        <v>262</v>
+      </c>
+      <c r="D81" t="s">
+        <v>337</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F81" t="s">
+        <v>0</v>
+      </c>
+      <c r="G81" t="s">
+        <v>302</v>
+      </c>
+      <c r="H81">
+        <v>2018</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K81" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>263</v>
+      </c>
+      <c r="C82" t="s">
+        <v>262</v>
+      </c>
+      <c r="D82" t="s">
+        <v>329</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F82" t="s">
+        <v>0</v>
+      </c>
+      <c r="G82" t="s">
+        <v>303</v>
+      </c>
+      <c r="H82">
+        <v>2018</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K82" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>263</v>
+      </c>
+      <c r="C83" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" t="s">
+        <v>328</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F83" t="s">
+        <v>0</v>
+      </c>
+      <c r="G83" t="s">
+        <v>304</v>
+      </c>
+      <c r="H83">
+        <v>2018</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K83" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>262</v>
+      </c>
+      <c r="D84" t="s">
+        <v>338</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" t="s">
+        <v>305</v>
+      </c>
+      <c r="H84">
+        <v>2018</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K84" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85" t="s">
+        <v>339</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="F85" t="s">
+        <v>0</v>
+      </c>
+      <c r="G85" t="s">
+        <v>306</v>
+      </c>
+      <c r="H85">
+        <v>2018</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K85" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>263</v>
+      </c>
+      <c r="C86" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" t="s">
+        <v>340</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F86" t="s">
+        <v>0</v>
+      </c>
+      <c r="G86" t="s">
+        <v>307</v>
+      </c>
+      <c r="H86">
+        <v>2018</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K86" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>263</v>
+      </c>
+      <c r="C87" t="s">
+        <v>262</v>
+      </c>
+      <c r="D87" t="s">
+        <v>341</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" t="s">
+        <v>308</v>
+      </c>
+      <c r="H87">
+        <v>2018</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K87" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>263</v>
+      </c>
+      <c r="C88" t="s">
+        <v>262</v>
+      </c>
+      <c r="D88" t="s">
+        <v>342</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" t="s">
+        <v>309</v>
+      </c>
+      <c r="H88">
+        <v>2018</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K88" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" t="s">
+        <v>262</v>
+      </c>
+      <c r="D89" t="s">
+        <v>343</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G89" t="s">
+        <v>310</v>
+      </c>
+      <c r="H89">
+        <v>2018</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K89" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" t="s">
+        <v>262</v>
+      </c>
+      <c r="D90" t="s">
+        <v>344</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F90" t="s">
+        <v>0</v>
+      </c>
+      <c r="G90" t="s">
+        <v>311</v>
+      </c>
+      <c r="H90">
+        <v>2018</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K90" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>263</v>
+      </c>
+      <c r="C91" t="s">
+        <v>262</v>
+      </c>
+      <c r="D91" t="s">
+        <v>345</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F91" t="s">
+        <v>0</v>
+      </c>
+      <c r="G91" t="s">
+        <v>312</v>
+      </c>
+      <c r="H91">
+        <v>2018</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K91" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" t="s">
+        <v>262</v>
+      </c>
+      <c r="D92" t="s">
+        <v>346</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F92" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" t="s">
+        <v>313</v>
+      </c>
+      <c r="H92">
+        <v>2018</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K92" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" t="s">
+        <v>347</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" t="s">
+        <v>0</v>
+      </c>
+      <c r="G93" t="s">
+        <v>314</v>
+      </c>
+      <c r="H93">
+        <v>2018</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K93" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" t="s">
+        <v>262</v>
+      </c>
+      <c r="D94" t="s">
+        <v>348</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F94" t="s">
+        <v>0</v>
+      </c>
+      <c r="G94" t="s">
+        <v>315</v>
+      </c>
+      <c r="H94">
+        <v>2018</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K94" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" t="s">
+        <v>262</v>
+      </c>
+      <c r="D95" t="s">
+        <v>349</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F95" t="s">
+        <v>0</v>
+      </c>
+      <c r="G95" t="s">
+        <v>316</v>
+      </c>
+      <c r="H95">
+        <v>2018</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="K95" s="3">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3950,8 +5140,59 @@
     <hyperlink ref="J65:J71" r:id="rId72" display="https://i.loli.net/2019/01/05/5c3020ebcfd0c.jpg" xr:uid="{EABCAB15-2F85-4F3C-B25E-746440BA529B}"/>
     <hyperlink ref="J57" r:id="rId73" xr:uid="{CB0EF528-70DF-48B6-9C79-48F33CF6DEB0}"/>
     <hyperlink ref="J58:J63" r:id="rId74" display="https://i.loli.net/2019/01/05/5c30496ae0be7.jpg" xr:uid="{8F4143E9-D1C1-4A1B-9565-71CF6E5E9DDE}"/>
+    <hyperlink ref="E72" r:id="rId75" xr:uid="{AC6A8008-5FF1-4062-A540-DA71ED775F6B}"/>
+    <hyperlink ref="E73:E95" r:id="rId76" display="https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/01" xr:uid="{94060FCB-AB49-45EA-97B4-1D4C59268CFE}"/>
+    <hyperlink ref="I72" r:id="rId77" xr:uid="{CEF2BAD3-7AF1-4126-8CE1-6BDF4F25962A}"/>
+    <hyperlink ref="J72" r:id="rId78" xr:uid="{414E48C1-FC2A-414F-8C33-B012C17CC931}"/>
+    <hyperlink ref="I73" r:id="rId79" xr:uid="{FAF28C24-2D76-4BF1-8623-B9008B6D76D0}"/>
+    <hyperlink ref="J73" r:id="rId80" xr:uid="{DE80FEEE-50A5-4D2B-A852-A9065593ACBF}"/>
+    <hyperlink ref="J74" r:id="rId81" xr:uid="{C051AB3C-12E2-4B8F-824B-525AEE88BCEE}"/>
+    <hyperlink ref="J76" r:id="rId82" xr:uid="{5DCFE143-9960-416A-990E-3809FBD0976A}"/>
+    <hyperlink ref="J78" r:id="rId83" xr:uid="{9D3B16CE-C4A0-4D61-A38F-5B03D107A2BC}"/>
+    <hyperlink ref="J80" r:id="rId84" xr:uid="{6F4E1249-ABFD-447C-BD7E-74D9112B524F}"/>
+    <hyperlink ref="J82" r:id="rId85" xr:uid="{D80ABBBB-3D88-4692-B4E7-B3184E3FBF9A}"/>
+    <hyperlink ref="J84" r:id="rId86" xr:uid="{8CBCC8D8-5112-489D-A438-788B9115F0E0}"/>
+    <hyperlink ref="J86" r:id="rId87" xr:uid="{E5AD1D32-6D2F-40DD-82DC-74575623F61B}"/>
+    <hyperlink ref="J88" r:id="rId88" xr:uid="{3809FE1B-2D5C-4262-832F-1F58FFC56B12}"/>
+    <hyperlink ref="J90" r:id="rId89" xr:uid="{CA9A1D79-2668-4D70-BF9C-453621FEBB3E}"/>
+    <hyperlink ref="J92" r:id="rId90" xr:uid="{C83C19D8-74FD-4529-A51B-14673C7096D8}"/>
+    <hyperlink ref="J94" r:id="rId91" xr:uid="{A46AE2DA-6DE4-4D4E-922A-D2EA9E55DB04}"/>
+    <hyperlink ref="J75" r:id="rId92" xr:uid="{4C86C45C-1704-473A-A461-A7227CF82671}"/>
+    <hyperlink ref="J77" r:id="rId93" xr:uid="{091AA27B-A9A5-466D-8838-F000A96B4686}"/>
+    <hyperlink ref="J79" r:id="rId94" xr:uid="{2EA0E5A4-22A0-4B37-A090-21BF579564FA}"/>
+    <hyperlink ref="J81" r:id="rId95" xr:uid="{55D76F3C-EFC6-4C13-AD9B-1EE0B7804A8D}"/>
+    <hyperlink ref="J83" r:id="rId96" xr:uid="{2537DA40-44C9-4FD3-B1F6-B3B594FE4414}"/>
+    <hyperlink ref="J85" r:id="rId97" xr:uid="{D3756896-7ED2-4601-B458-7CD60293C988}"/>
+    <hyperlink ref="J87" r:id="rId98" xr:uid="{10E7F6A6-7C87-41BC-8F34-235A6A8F814E}"/>
+    <hyperlink ref="J89" r:id="rId99" xr:uid="{EEB8232E-F678-47D9-A8A6-E684EAB0594E}"/>
+    <hyperlink ref="J91" r:id="rId100" xr:uid="{430E98D8-E273-408E-AFEA-F1C6C9838698}"/>
+    <hyperlink ref="J93" r:id="rId101" xr:uid="{3C0BD5D8-3CA0-49AA-9685-97AB8E2EC986}"/>
+    <hyperlink ref="J95" r:id="rId102" xr:uid="{BF138A55-8C15-43AA-9262-D2D55E966AA9}"/>
+    <hyperlink ref="I74" r:id="rId103" xr:uid="{AEE542C9-F9F7-4BB3-9001-7C9242158112}"/>
+    <hyperlink ref="I75" r:id="rId104" xr:uid="{12383A99-79C8-4E51-8918-30CA3F8B37EB}"/>
+    <hyperlink ref="I76" r:id="rId105" xr:uid="{6915A887-6FAA-4FE0-9CA0-D81995ED61D5}"/>
+    <hyperlink ref="I77" r:id="rId106" xr:uid="{D6A8500E-A100-484F-82F1-AA61424126CB}"/>
+    <hyperlink ref="I78" r:id="rId107" xr:uid="{CC01CAA1-226D-488F-84E5-AB4B9E42B055}"/>
+    <hyperlink ref="I79" r:id="rId108" xr:uid="{19BE25DB-EB3E-44BE-8F10-93B88F665238}"/>
+    <hyperlink ref="I80" r:id="rId109" xr:uid="{6634840B-4038-4DE1-AA54-41070A2EB5EA}"/>
+    <hyperlink ref="I81" r:id="rId110" xr:uid="{2FDCACD7-0D77-4ADD-8B77-B28943CC14A4}"/>
+    <hyperlink ref="I82" r:id="rId111" xr:uid="{9D4C8B1D-E2D4-4E52-93C0-4D6AF5B7DA50}"/>
+    <hyperlink ref="I83" r:id="rId112" xr:uid="{7C91F506-E799-4916-9599-ACEE9DA2441A}"/>
+    <hyperlink ref="I84" r:id="rId113" xr:uid="{FCB6AAFA-77EC-436C-A3C8-883068034EE3}"/>
+    <hyperlink ref="I85:I95" r:id="rId114" display="https://api.prprpr.me/dplayer/v3/bilibili?cid=35955160" xr:uid="{51E38A52-219F-40E7-8D02-BAB583F582AA}"/>
+    <hyperlink ref="I85" r:id="rId115" xr:uid="{1173B9BD-BE6F-473A-A6FD-8D5387950A53}"/>
+    <hyperlink ref="I86" r:id="rId116" xr:uid="{08339D49-2048-4696-A0AE-D55D2DCC402C}"/>
+    <hyperlink ref="I87" r:id="rId117" xr:uid="{D249FB02-157D-4BFB-B23C-C9CE6C29F88A}"/>
+    <hyperlink ref="I88" r:id="rId118" xr:uid="{81B15F71-41F1-4B3A-9AEB-1B0DA64B5ADC}"/>
+    <hyperlink ref="I89" r:id="rId119" xr:uid="{C7B6B9F2-01AD-492C-B5A0-65013A01A7DA}"/>
+    <hyperlink ref="I90" r:id="rId120" xr:uid="{181FA120-90F9-48C7-800F-A77BD7C6CEFE}"/>
+    <hyperlink ref="I91" r:id="rId121" xr:uid="{EBB18D1C-CFE3-492E-A440-0F8B1E8CAB19}"/>
+    <hyperlink ref="I92" r:id="rId122" xr:uid="{F7696936-5AFD-4D8B-BB4A-AF1DCC22B152}"/>
+    <hyperlink ref="I93" r:id="rId123" xr:uid="{0C26AB77-6995-4DAF-8134-655CA684BD79}"/>
+    <hyperlink ref="I94" r:id="rId124" xr:uid="{BCFCA0E8-597A-4D9E-B300-16D72169B57A}"/>
+    <hyperlink ref="I95" r:id="rId125" xr:uid="{FF82CA1D-2DFD-4EE6-82CE-89AAA7F2A866}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId75"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId126"/>
 </worksheet>
 </file>
--- a/package/data.xlsx
+++ b/package/data.xlsx
@@ -115,7 +115,7 @@
     <t>本集主要内容：松州，这座位于四川西北部的古城，今天的名字叫松潘。千年往事清晰如昨，走进松潘，梦回盛唐，和谐交融的珍贵，就铭刻在古城的一砖一石、一山一水中。松潘，是一幅浓缩战争与融合的历史画卷。松潘，是一个凝固色彩与时光的诗意之地。（《中国影像方志》 第142集 四川松潘篇）</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=67933910</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=67933910</t>
   </si>
   <si>
     <t>动漫</t>
@@ -133,7 +133,7 @@
     <t>高中女生佐仓千代好不容易提起勇气向同年级的野崎梅太郎告白，得到的却是野崎的亲笔签名，和“要不要来我家？”的邀请。佐仓虽然对意料之外的展开感到困惑，却还是带着期待来到野崎家，没想到等着她的却是漫画原稿，不知不觉间就顺着野崎的指示开始进行涂黑作业。到这时佐仓才发现野崎是知名少女漫画家梦野咲子。千代艰辛的恋爱之路即将爆笑展开。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=57037134</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=57037134</t>
   </si>
   <si>
     <t>https://i.loli.net/2019/01/05/5c301ab8bfcde.jpg</t>
@@ -148,7 +148,7 @@
     <t>真♂“女主”御子柴实琴闪亮登场，千代感受到前所未有的危机感。其实这位小御御是梅太郎的御用助手，他对于千代的出现感到非常不满。小御御平时喜欢招蜂引蝶，爱说羞耻台词事后又会觉得超级难为情，这种蹭的累性格让他在校园内超有人气。小御御很想在新人助手千代面前展现自己的前辈风采，用各种招数引诱千代向他请教，千代表示非常无奈。千代的告白之路上杀出小御御程咬金，革命尚未成功，千代仍需努力呀。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958733</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958733</t>
   </si>
   <si>
     <t>月刊少女野崎君 第03号 暴力学长VS王子殿下</t>
@@ -160,7 +160,7 @@
     <t>小御御为小千代介绍了位新朋友，这位新朋友名叫鹿岛，与小御御不差上下，号称“校园的王子殿下”。玉树临风，王子气质，重点是毫不脸红的说出羞耻度爆表的台词。可惜美中不足的是，这位王子殿下，是个女的。而王子殿下的社长大人，又是一个拿拳头说话的汉子。王子VS汉子，小千代的脑洞又无限开大了呢。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=57047605</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=57047605</t>
   </si>
   <si>
     <t>月刊少女野崎君 第04话 男人有时非战斗不可。</t>
@@ -172,7 +172,7 @@
     <t>本集没有我们小千代什么事，负责串场的小千代辛苦啦。小御御留宿梅太郎家，表面是留宿，其实小御御是为了向梅太郎讨教如何俘虏妹子心。别看小御御玉树临风，实际上是个女性交流障碍者。他所有关于妹子的情报都是从Galgame中获得的。这次留宿他也是为了让梅太郎帮他给游戏通关，可惜梅太郎现实生活中也是个恋爱白痴，俩人的Galgame攻略渐渐走向了奇怪的路线……</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958441</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958441</t>
   </si>
   <si>
     <t>月刊少女野崎君 第05话 「思考」「描绘」恋情的男子。</t>
@@ -184,7 +184,7 @@
     <t>梅太郎突然把家里打扫的一尘不染，小千代很好奇为何要这样。经询问原来是责任编辑要来，难道小千代又要有新的情敌出现么？脑海中出现的性感大姐姐形象让小千代受挫不已。现实都是残酷的，小千代的脑洞再一次落空，梅太郎的责编其实是个中年欧吉桑，而且这个欧吉桑看上去很不待见梅太郎……为什么梅太郎要对这个责编这么尽心尽责呢？这还得从梅太郎的上任责编说起……</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958449</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958449</t>
   </si>
   <si>
     <r>
@@ -223,7 +223,7 @@
     <t>梅太郎从生理上无法接受结月的存在。虽然结月的歌声美妙无比，但是本人的性格实在是……身为女子篮球队外援，没事干就去男子篮球部捣乱，打球从来不看规则，见人就用球砸，硬生生把篮球玩成躲避球。其中惨遭蹂躏的就是梅太郎的学弟若松，结月貌似看他不顺眼，打球每次都瞄准他。身心疲惫的若松向梅太郎诉苦，梅太郎好心建议让若松用漫画里的方式去跟结月摊牌，结果若松角色带入错误，把摊牌现场搞成了告白现场……</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958457</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958457</t>
   </si>
   <si>
     <t>月刊少女野崎君 第07话 漫画家思维的野崎君</t>
@@ -235,7 +235,7 @@
     <t>因提前完成原稿而无事可做的梅太郎在千代的邀请下一起去做休假该做的事。可明明在是千代脑海中的浪漫的约会，在漫画家脑的梅太郎同学加入进来后，竟变成了漫画素材收集作战，这场约会最终会怎么样呢？梅太郎和千代的关系会有进一步的发展吗？本集还有萌萌哒的小御御出场哦……</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56997160</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56997160</t>
   </si>
   <si>
     <t>月刊少女野崎君 第08话 校园王子（女生）的烦恼</t>
@@ -247,7 +247,7 @@
     <t>因为小堀前辈最近很冷淡烦恼的鹿岛，在小御御的建议下开始了对堀前辈的强迫盯人。而堀前辈一不小心暴露的梅太郎的漫画《恋爱吧》，更是让我们的王子殿下脑洞大开，鹿岛对堀前辈产生了怎样的误会呢？堀前辈又要怎么应对脑洞大开的鹿岛呢？他们两的关系会有进步吗？本集还收录了堀前辈的背景教室哦！看不会画背景的梅太郎怎么在漫画家的道路上继续前行……</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958478</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958478</t>
   </si>
   <si>
     <t>月刊少女野崎君 第09话 心跳不已的感觉，还足够吗？</t>
@@ -259,7 +259,7 @@
     <t>突然下起大雨，“白痴二人组”小千代和梅太郎都忘记带伞了。梅太郎原创吊炸天躲雨姿势，想护送小千代回家，结果以失败告终。帅气结月送伞给小千代神助攻，小千代撑伞和梅太郎漫步雨中。但是因为伞的偏向问题，小千代被妥妥的淋湿了！梅太郎你说好的“保护你不被雨淋到”呢！都小姐的漫画世界满都是狸猫，狸猫的精神污染已经最大化！都小姐终于勇敢反抗了！ 我要换责编！</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56981316</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56981316</t>
   </si>
   <si>
     <t>月刊少女野崎君 第10话 加强了羁绊、勒紧了缰绳。</t>
@@ -271,7 +271,7 @@
     <t>强攻女结月邀请弱受男若松看电影，若松在梅太郎的威逼利诱下决定前往。他想要出奇制胜打败结月，可是光靠可乐和爆米花来宣誓“主权”是没用的，还是乖乖陪着结月大人一起玩耍比较好哦！崛学长突然爱上了歌舞剧，鹿岛为了哄学长开心只好苦学唱歌，但她的歌声却吓到了梅太郎他们……</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958498</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958498</t>
   </si>
   <si>
     <r>
@@ -301,7 +301,7 @@
     <t>梅太郎初遇剑哥时十足的家庭主妇样啊！怪不得剑哥如此嫌弃他，不作就不会死啊！梅太郎觉得漫画剧情太平淡，他想通过日常生活来营造跌宕的剧情，可怜的小千代成了他的“惊喜”研究对象，各种吓一跳的“浪漫剧情”让小千代心跳不已！突然下起暴雨，若松、小崛前辈、小御御三人只好留宿梅太郎家，基情满满的睡衣派对即将上演！</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958504</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958504</t>
   </si>
   <si>
     <t>月刊少女野崎君 第12话 如果这都不算爱，谈何还有真情在。</t>
@@ -313,7 +313,7 @@
     <t>小千代的情人节巧克力到现在都没送出去，都怪梅太郎四处收集别人的恋爱八卦，可怜的小千代一直当跟屁虫，巧克力根本没机会送好么！梅太郎在同学们的误会中，度过了没有巧克力的情人节。小千代拿着没送出的巧克力准备拿给梅太郎吃，结果却和梅太郎撞个满怀，巧克力全掉地上啦，这下该怎么办呢？</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=56958513</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958513</t>
   </si>
   <si>
     <t>舌尖上的中国 第一季</t>
@@ -466,7 +466,7 @@
     <t>高中生·齐木楠雄是超能力者。心灵感应、念动力、透视、预知、瞬间移动、千里眼等，不论任何事情都自由自在。但这任谁都羡慕不已的最强能力，实际上对于本人而言是引来灾难的不幸元凶。因此，他在别人面前封印了超能力，以不起眼、不和他人有所牵扯为信条，默默无闻地过日子。但不知为何，他的身边总是聚集着不可思议的人类（生物），风暴般的灾难接连不断地降临！</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572558</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572558</t>
   </si>
   <si>
     <t>https://i.loli.net/2019/01/05/5c301ca300f19.jpg</t>
@@ -478,7 +478,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/02</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572656</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572656</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 03</t>
@@ -487,7 +487,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/03</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572657</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572657</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 04</t>
@@ -496,7 +496,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/04</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572663</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572663</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 05</t>
@@ -505,7 +505,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/05</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572665</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572665</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 06</t>
@@ -514,7 +514,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/06</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572670</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572670</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 07</t>
@@ -523,7 +523,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/07</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572682</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572682</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 08</t>
@@ -532,7 +532,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/08</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572684</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572684</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 09</t>
@@ -541,7 +541,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/09</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572686</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572686</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 10</t>
@@ -550,7 +550,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/10</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572692</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572692</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 11</t>
@@ -559,7 +559,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/11</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572564</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572564</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 12</t>
@@ -568,7 +568,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/12</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572695</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572695</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 13</t>
@@ -577,7 +577,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/13</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572698</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572698</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 14</t>
@@ -586,7 +586,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/14</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572761</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572761</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 15</t>
@@ -595,7 +595,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/15</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11572765</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572765</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 16</t>
@@ -604,7 +604,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/16</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11072419</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11072419</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 17</t>
@@ -613,7 +613,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/17</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11228469</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11228469</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 18</t>
@@ -622,7 +622,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/18</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11557935</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11557935</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 19</t>
@@ -631,7 +631,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/19</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11723079</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11723079</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 20</t>
@@ -640,7 +640,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/20</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=11911660</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11911660</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 21</t>
@@ -649,7 +649,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/21</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=12077709</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=12077709</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 22</t>
@@ -658,7 +658,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/22</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=12246783</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=12246783</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 23</t>
@@ -667,7 +667,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/23</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=12432506</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=12432506</t>
   </si>
   <si>
     <t>齐木楠雄的灾难 第一季 24</t>
@@ -676,7 +676,7 @@
     <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/24</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=47365070</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=47365070</t>
   </si>
   <si>
     <t>传承 第二季</t>
@@ -691,7 +691,7 @@
     <t>江湖是文化创造的母体和基因，也是传承延续的动力和竞争。本集记录了五位传承人：痴迷少林七十二绝技“水上漂”的武僧释理亮、四川成都“最后一个堂倌” 路明章、柯尔克孜族驯鹰习俗国家级传承人库尔曼、土家族吊角楼营造技艺国家级传承人彭善尧，还有浙江磐安县炼火“闹火海”项目的能手陈有根。行走江湖，每个人都必须拼尽全力证明自己。那些被世道和人心反复打磨过的人格和讲究，才是真正立得住、传得下、守得牢的传承。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=47366904</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=47366904</t>
   </si>
   <si>
     <t>https://i.loli.net/2019/01/05/5c30496ae0be7.jpg</t>
@@ -706,7 +706,7 @@
     <t>本集主要表现非遗文化中的各种绝妙技艺。在中国的非遗文化中，存在着各种绝妙技艺。这些民间绝技之所以绝，是因为人依靠着自己的身体与智慧，实现了技艺的至高表现，充分展示了中华传统文化的魅力。本集所表现的五个非遗项目：鄂温克族驯鹿习俗、麻山绝技、里下河渔具渔法、乐清首饰龙制作技艺和巧家小碗红糖制作技艺，都是非遗传承人身怀的绝技。是祖先留下来、本人几十年磨出来的，并非一日之功。绝技未绝，继往开来，生活的理想就是理想的生活。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=47368877</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=47368877</t>
   </si>
   <si>
     <t>传承 第二季 第三集 德行</t>
@@ -718,7 +718,7 @@
     <t>人们将祖先留下的技艺传承至今，形式在变、时代在变，但蕴藏其中的规矩与原则不变。德是内在修养，行是外化举止。鄂伦春人狩猎懂得禁忌；武当传人练轻功懂得知晓规矩谦卑；斫制古琴追求天人合一；苦练独竹漂需要勇气；木活字印刷族谱以示虔诚。祖先的智慧传承至今，早已超脱了技艺本身而在物外，手艺功夫随时代褪色，普世的德行、为人处世的哲理却熠熠生辉。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=47370586</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=47370586</t>
   </si>
   <si>
     <t>传承 第二季 第四集 师徒</t>
@@ -739,7 +739,7 @@
     <t>不忘初心，方得始终，从心开始，勇猛精进，历来是中国人的信仰。心传是智者心与心跨越时空的沟通，投盐入海，让个体融入族群，让认同成为驱动，让理解形成共识，这就是中华文明海纳百川的心传之法。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=47846078</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846078</t>
   </si>
   <si>
     <t>传承 第二季 第六集 流变</t>
@@ -751,7 +751,7 @@
     <t>本集主要是表达在传承中创新发展的问题。“传承”一词来源于传递教法的一种传统形式。如今世界变了，适当创新是必要的。本集记录了延绳钓捕捞技艺、毛皮滑雪板技艺、蒙古长调民歌、兴化垛田生产技艺和峨眉武术五个技艺。变与不变，全都存乎于心的期望与动机，还在于行的累积与渐变。所谓流变，就是随时间而来的智慧。</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=47846088</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846088</t>
   </si>
   <si>
     <t>传承 第二季 第七集 家园</t>
@@ -763,7 +763,7 @@
     <t xml:space="preserve">家园，是一种生命的庇护。蒙古人的家园在骆驼背上，哈萨克族人的家园在不停地转场路途中。家园就是衣食住行的普通生活，江西的万年贡米，重庆的荣昌夏布，西藏的芒康盐井。理想家园就是精神和心灵的至上归宿，就是千古不变的人文感召。文化是民族的血脉，守护传统技艺，坚守人民的精神家园。 </t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=48037309</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=48037309</t>
   </si>
   <si>
     <t>人类星球</t>
@@ -853,7 +853,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作02的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到了哦，我的DARLING”</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=29892777</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=29892777</t>
   </si>
   <si>
     <t>https://i.loli.net/2019/01/08/5c344ea81f560.jpg</t>
@@ -868,7 +868,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作03的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=30219063</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=30219063</t>
   </si>
   <si>
     <t>第3话：戰鬥人偶</t>
@@ -880,7 +880,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作04的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=30670211</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=30670211</t>
   </si>
   <si>
     <t>第4话：比翼雙飛</t>
@@ -892,7 +892,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作05的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=31144490</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=31144490</t>
   </si>
   <si>
     <t>第5话：你的莖刺 對我刻下印記</t>
@@ -904,7 +904,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作06的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到¼</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=31692630</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=31692630</t>
   </si>
   <si>
     <t>第6话：DARLING in the FRANXX</t>
@@ -916,7 +916,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作07的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=32143511</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=32143511</t>
   </si>
   <si>
     <t>第7话：流星MORATORIUM</t>
@@ -928,7 +928,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作08的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008_</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=32618520</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=32618520</t>
   </si>
   <si>
     <t>第8话：男生X女生</t>
@@ -940,7 +940,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作09的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到¼</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=33204555</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=33204555</t>
   </si>
   <si>
     <t>第9话：TRIANGLE BOMB</t>
@@ -952,7 +952,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作10的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到我的DARLING”</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=33712259</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=33712259</t>
   </si>
   <si>
     <t>第10话：永遠的都市</t>
@@ -964,7 +964,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作11的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=34221660</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=34221660</t>
   </si>
   <si>
     <t>第11话：調換搭檔</t>
@@ -976,7 +976,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作12的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=34768082</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=34768082</t>
   </si>
   <si>
     <t>第12话：花園/起始之庭</t>
@@ -988,7 +988,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作13的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=35330667</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=35330667</t>
   </si>
   <si>
     <t>第13话：魔物與王子殿下</t>
@@ -1000,7 +1000,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作14的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=35955160</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=35955160</t>
   </si>
   <si>
     <t>第14话：罪與告白</t>
@@ -1012,7 +1012,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作15的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=36514990</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=36514990</t>
   </si>
   <si>
     <t>第15话：比翼鳥</t>
@@ -1024,7 +1024,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作16的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=37096269</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=37096269</t>
   </si>
   <si>
     <t>第16话：我們的日常</t>
@@ -1036,7 +1036,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作17的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=38263183</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=38263183</t>
   </si>
   <si>
     <t>第17话：樂園</t>
@@ -1048,7 +1048,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作18的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到我的DARLING”</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=38862289</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=38862289</t>
   </si>
   <si>
     <t>第18话：櫻花綻開之時</t>
@@ -1060,7 +1060,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作19的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=39470873</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=39470873</t>
   </si>
   <si>
     <t>第19话：偽人類們</t>
@@ -1072,7 +1072,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作20的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=40120683</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=40120683</t>
   </si>
   <si>
     <t>第20话：新世界</t>
@@ -1084,7 +1084,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作21的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008_</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=41316760</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=41316760</t>
   </si>
   <si>
     <t>第21话：為了最愛的你</t>
@@ -1096,7 +1096,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作22的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=42332626</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=42332626</t>
   </si>
   <si>
     <t>第22话：觀星者</t>
@@ -1108,7 +1108,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作23的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=43252925</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=43252925</t>
   </si>
   <si>
     <t>第23话：DARLING in the FRANXX</t>
@@ -1120,7 +1120,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作24的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=44248375</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=44248375</t>
   </si>
   <si>
     <t>第24话：不要離開我</t>
@@ -1132,7 +1132,7 @@
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作25的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008_</t>
   </si>
   <si>
-    <t>https://api.menhood.wang/dplayer/v3/bilibili?cid=45267295</t>
+    <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=45267295</t>
   </si>
 </sst>
 </file>
@@ -1140,12 +1140,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1170,10 +1170,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1184,9 +1208,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1194,16 +1224,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1222,8 +1275,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1238,76 +1300,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1334,7 +1327,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,13 +1387,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1370,127 +1495,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,19 +1507,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1525,17 +1518,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1554,11 +1536,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,192 +1603,164 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5466,52 +5459,52 @@
     <hyperlink ref="E57" r:id="rId10" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/01"/>
     <hyperlink ref="E58:E63" r:id="rId10" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/02"/>
     <hyperlink ref="E34:E56" r:id="rId5" display="https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/02"/>
-    <hyperlink ref="I6" r:id="rId11" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=67933910"/>
-    <hyperlink ref="I7:I18" r:id="rId11" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=57037134"/>
-    <hyperlink ref="I7" r:id="rId12" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=57037134"/>
-    <hyperlink ref="I8" r:id="rId13" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958733"/>
-    <hyperlink ref="I9" r:id="rId14" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=57047605"/>
-    <hyperlink ref="I10" r:id="rId15" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958441"/>
-    <hyperlink ref="I11" r:id="rId16" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958449"/>
-    <hyperlink ref="I12" r:id="rId17" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958457"/>
-    <hyperlink ref="I13" r:id="rId18" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56997160"/>
-    <hyperlink ref="I14" r:id="rId19" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958478"/>
-    <hyperlink ref="I15" r:id="rId20" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56981316"/>
-    <hyperlink ref="I16" r:id="rId21" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958498"/>
-    <hyperlink ref="I17" r:id="rId22" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958504"/>
-    <hyperlink ref="I18" r:id="rId23" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=56958513"/>
+    <hyperlink ref="I6" r:id="rId11" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=67933910"/>
+    <hyperlink ref="I7:I18" r:id="rId11" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57037134"/>
+    <hyperlink ref="I7" r:id="rId12" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57037134"/>
+    <hyperlink ref="I8" r:id="rId13" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958733"/>
+    <hyperlink ref="I9" r:id="rId14" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57047605"/>
+    <hyperlink ref="I10" r:id="rId15" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958441"/>
+    <hyperlink ref="I11" r:id="rId16" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958449"/>
+    <hyperlink ref="I12" r:id="rId17" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958457"/>
+    <hyperlink ref="I13" r:id="rId18" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56997160"/>
+    <hyperlink ref="I14" r:id="rId19" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958478"/>
+    <hyperlink ref="I15" r:id="rId20" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56981316"/>
+    <hyperlink ref="I16" r:id="rId21" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958498"/>
+    <hyperlink ref="I17" r:id="rId22" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958504"/>
+    <hyperlink ref="I18" r:id="rId23" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958513"/>
     <hyperlink ref="E63" r:id="rId24" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/07"/>
     <hyperlink ref="E64" r:id="rId25" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/01"/>
-    <hyperlink ref="I33" r:id="rId26" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572558"/>
-    <hyperlink ref="I34" r:id="rId27" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572656"/>
-    <hyperlink ref="I35" r:id="rId28" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572657"/>
-    <hyperlink ref="I36" r:id="rId29" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572663"/>
-    <hyperlink ref="I37" r:id="rId30" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572665"/>
-    <hyperlink ref="I38" r:id="rId31" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572670"/>
-    <hyperlink ref="I40" r:id="rId32" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572684"/>
-    <hyperlink ref="I42" r:id="rId33" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572692"/>
-    <hyperlink ref="I44" r:id="rId34" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572695"/>
-    <hyperlink ref="I46" r:id="rId35" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572761"/>
-    <hyperlink ref="I48" r:id="rId36" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11072419"/>
-    <hyperlink ref="I50" r:id="rId37" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11557935"/>
-    <hyperlink ref="I52" r:id="rId38" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11911660"/>
-    <hyperlink ref="I54" r:id="rId39" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=12246783"/>
-    <hyperlink ref="I56" r:id="rId40" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=47365070"/>
-    <hyperlink ref="I39" r:id="rId41" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572682"/>
-    <hyperlink ref="I41" r:id="rId42" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572686"/>
-    <hyperlink ref="I45" r:id="rId43" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572698"/>
-    <hyperlink ref="I47" r:id="rId44" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11572765"/>
-    <hyperlink ref="I49" r:id="rId45" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11228469"/>
-    <hyperlink ref="I51" r:id="rId46" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=11723079"/>
-    <hyperlink ref="I53" r:id="rId47" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=12077709"/>
-    <hyperlink ref="I55" r:id="rId48" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=12432506"/>
-    <hyperlink ref="I57" r:id="rId49" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=47366904"/>
-    <hyperlink ref="I58" r:id="rId50" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=47368877"/>
-    <hyperlink ref="I60" r:id="rId51" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=47370586"/>
-    <hyperlink ref="I62" r:id="rId52" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=47846088"/>
-    <hyperlink ref="I59" r:id="rId51" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=47370586"/>
-    <hyperlink ref="I61" r:id="rId53" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=47846078"/>
-    <hyperlink ref="I63" r:id="rId54" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=48037309"/>
+    <hyperlink ref="I33" r:id="rId26" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572558"/>
+    <hyperlink ref="I34" r:id="rId27" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572656"/>
+    <hyperlink ref="I35" r:id="rId28" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572657"/>
+    <hyperlink ref="I36" r:id="rId29" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572663"/>
+    <hyperlink ref="I37" r:id="rId30" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572665"/>
+    <hyperlink ref="I38" r:id="rId31" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572670"/>
+    <hyperlink ref="I40" r:id="rId32" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572684"/>
+    <hyperlink ref="I42" r:id="rId33" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572692"/>
+    <hyperlink ref="I44" r:id="rId34" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572695"/>
+    <hyperlink ref="I46" r:id="rId35" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572761"/>
+    <hyperlink ref="I48" r:id="rId36" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11072419"/>
+    <hyperlink ref="I50" r:id="rId37" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11557935"/>
+    <hyperlink ref="I52" r:id="rId38" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11911660"/>
+    <hyperlink ref="I54" r:id="rId39" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12246783"/>
+    <hyperlink ref="I56" r:id="rId40" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47365070"/>
+    <hyperlink ref="I39" r:id="rId41" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572682"/>
+    <hyperlink ref="I41" r:id="rId42" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572686"/>
+    <hyperlink ref="I45" r:id="rId43" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572698"/>
+    <hyperlink ref="I47" r:id="rId44" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572765"/>
+    <hyperlink ref="I49" r:id="rId45" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11228469"/>
+    <hyperlink ref="I51" r:id="rId46" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11723079"/>
+    <hyperlink ref="I53" r:id="rId47" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12077709"/>
+    <hyperlink ref="I55" r:id="rId48" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12432506"/>
+    <hyperlink ref="I57" r:id="rId49" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47366904"/>
+    <hyperlink ref="I58" r:id="rId50" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47368877"/>
+    <hyperlink ref="I60" r:id="rId51" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47370586"/>
+    <hyperlink ref="I62" r:id="rId52" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846088"/>
+    <hyperlink ref="I59" r:id="rId51" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47370586"/>
+    <hyperlink ref="I61" r:id="rId53" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846078"/>
+    <hyperlink ref="I63" r:id="rId54" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=48037309"/>
     <hyperlink ref="E65:E71" r:id="rId25" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/02"/>
     <hyperlink ref="J7" r:id="rId55" display="https://i.loli.net/2019/01/05/5c301ab8bfcde.jpg"/>
     <hyperlink ref="J8:J18" r:id="rId55" display="https://i.loli.net/2019/01/05/5c301ab8bfcde.jpg"/>
@@ -5526,9 +5519,9 @@
     <hyperlink ref="J58:J63" r:id="rId60" display="https://i.loli.net/2019/01/05/5c30496ae0be7.jpg"/>
     <hyperlink ref="E72" r:id="rId61" display="https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/01"/>
     <hyperlink ref="E73:E95" r:id="rId61" display="https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/02"/>
-    <hyperlink ref="I72" r:id="rId62" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=29892777"/>
+    <hyperlink ref="I72" r:id="rId62" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=29892777"/>
     <hyperlink ref="J72" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="I73" r:id="rId64" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=30219063"/>
+    <hyperlink ref="I73" r:id="rId64" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=30219063"/>
     <hyperlink ref="J73" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
     <hyperlink ref="J74" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
     <hyperlink ref="J76" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
@@ -5552,29 +5545,29 @@
     <hyperlink ref="J91" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
     <hyperlink ref="J93" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
     <hyperlink ref="J95" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="I74" r:id="rId65" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=30670211"/>
-    <hyperlink ref="I75" r:id="rId66" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=31144490"/>
-    <hyperlink ref="I76" r:id="rId67" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=31692630"/>
-    <hyperlink ref="I77" r:id="rId68" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=32143511"/>
-    <hyperlink ref="I78" r:id="rId69" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=32618520"/>
-    <hyperlink ref="I79" r:id="rId70" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=33204555"/>
-    <hyperlink ref="I80" r:id="rId71" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=33712259"/>
-    <hyperlink ref="I81" r:id="rId72" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=34221660"/>
-    <hyperlink ref="I82" r:id="rId73" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=34768082"/>
-    <hyperlink ref="I83" r:id="rId74" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=35330667"/>
-    <hyperlink ref="I84" r:id="rId75" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=35955160"/>
-    <hyperlink ref="I85:I95" r:id="rId75" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=36514990"/>
-    <hyperlink ref="I85" r:id="rId76" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=36514990"/>
-    <hyperlink ref="I86" r:id="rId77" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=37096269"/>
-    <hyperlink ref="I87" r:id="rId78" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=38263183"/>
-    <hyperlink ref="I88" r:id="rId79" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=38862289"/>
-    <hyperlink ref="I89" r:id="rId80" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=39470873"/>
-    <hyperlink ref="I90" r:id="rId81" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=40120683"/>
-    <hyperlink ref="I91" r:id="rId82" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=41316760"/>
-    <hyperlink ref="I92" r:id="rId83" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=42332626"/>
-    <hyperlink ref="I93" r:id="rId84" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=43252925"/>
-    <hyperlink ref="I94" r:id="rId85" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=44248375"/>
-    <hyperlink ref="I95" r:id="rId86" display="https://api.menhood.wang/dplayer/v3/bilibili?cid=45267295"/>
+    <hyperlink ref="I74" r:id="rId65" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=30670211"/>
+    <hyperlink ref="I75" r:id="rId66" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=31144490"/>
+    <hyperlink ref="I76" r:id="rId67" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=31692630"/>
+    <hyperlink ref="I77" r:id="rId68" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=32143511"/>
+    <hyperlink ref="I78" r:id="rId69" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=32618520"/>
+    <hyperlink ref="I79" r:id="rId70" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=33204555"/>
+    <hyperlink ref="I80" r:id="rId71" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=33712259"/>
+    <hyperlink ref="I81" r:id="rId72" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=34221660"/>
+    <hyperlink ref="I82" r:id="rId73" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=34768082"/>
+    <hyperlink ref="I83" r:id="rId74" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=35330667"/>
+    <hyperlink ref="I84" r:id="rId75" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=35955160"/>
+    <hyperlink ref="I85:I95" r:id="rId75" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=36514990"/>
+    <hyperlink ref="I85" r:id="rId76" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=36514990"/>
+    <hyperlink ref="I86" r:id="rId77" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=37096269"/>
+    <hyperlink ref="I87" r:id="rId78" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=38263183"/>
+    <hyperlink ref="I88" r:id="rId79" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=38862289"/>
+    <hyperlink ref="I89" r:id="rId80" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=39470873"/>
+    <hyperlink ref="I90" r:id="rId81" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=40120683"/>
+    <hyperlink ref="I91" r:id="rId82" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=41316760"/>
+    <hyperlink ref="I92" r:id="rId83" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=42332626"/>
+    <hyperlink ref="I93" r:id="rId84" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=43252925"/>
+    <hyperlink ref="I94" r:id="rId85" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=44248375"/>
+    <hyperlink ref="I95" r:id="rId86" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=45267295"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>

--- a/package/data.xlsx
+++ b/package/data.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="alldata" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">alldata!$H$2:$H$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">alldata!$H$2:$H$54</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="350">
   <si>
     <t>id</t>
   </si>
@@ -52,49 +52,28 @@
     <t>max</t>
   </si>
   <si>
-    <t>电视栏目</t>
-  </si>
-  <si>
-    <t>《记忆》</t>
-  </si>
-  <si>
-    <t>《记忆》 巴金1931年</t>
-  </si>
-  <si>
-    <t>https://menhood.320.io/files/%E7%94%B5%E8%A7%86%E6%A0%8F%E7%9B%AE/%E7%94%B5%E8%A7%86%E8%8A%82%E7%9B%AE%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B/%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B%20%E5%B7%B4%E9%87%911931%E5%B9%B4/01</t>
+    <t>短片</t>
+  </si>
+  <si>
+    <t>1988-1998华语唱片的黄金十年金曲</t>
+  </si>
+  <si>
+    <t>https://ddns.menhood.wang:2233/files/%E7%9F%AD%E7%89%87/1988-1998%E5%8D%8E%E8%AF%AD%E5%94%B1%E7%89%87%E7%9A%84%E9%BB%84%E9%87%91%E5%8D%81%E5%B9%B4%E9%87%91%E6%9B%B2/01</t>
   </si>
   <si>
     <t>.mp4</t>
   </si>
   <si>
-    <t>二十世纪，对中国人而言，是一个有着特殊记忆的世纪。在这个世纪里，中国所发生的变化超过了此前的数千年，且充满了传奇色彩。一部历时三年精心制作，再现二十世纪中国名人的特殊瞬间。在忠实历史真实的前提下，用新闻和艺术的手法再现历史场景。</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
-    <t>《记忆》 阿炳1950年</t>
-  </si>
-  <si>
-    <t>https://menhood.320.io/files/%E7%94%B5%E8%A7%86%E6%A0%8F%E7%9B%AE/%E7%94%B5%E8%A7%86%E8%8A%82%E7%9B%AE%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B/%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B%20%E9%98%BF%E7%82%B31950%E5%B9%B4/01</t>
-  </si>
-  <si>
-    <t>短片</t>
-  </si>
-  <si>
-    <t>1988-1998华语唱片的黄金十年金曲</t>
-  </si>
-  <si>
-    <t>https://menhood.320.io/files/%E7%9F%AD%E7%89%87/1988-1998%E5%8D%8E%E8%AF%AD%E5%94%B1%E7%89%87%E7%9A%84%E9%BB%84%E9%87%91%E5%8D%81%E5%B9%B4%E9%87%91%E6%9B%B2/01</t>
-  </si>
-  <si>
     <t>延时</t>
   </si>
   <si>
     <t>COSMOSSpace</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%BB%B6%E6%97%B6/COSMOSSpace/01</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%BB%B6%E6%97%B6/COSMOSSpace/01</t>
   </si>
   <si>
     <t>宇宙时空之旅</t>
@@ -127,7 +106,7 @@
     <t>月刊少女野崎君 创刊号 这场恋情将被改编为少女漫画</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/01</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/01</t>
   </si>
   <si>
     <t>高中女生佐仓千代好不容易提起勇气向同年级的野崎梅太郎告白，得到的却是野崎的亲笔签名，和“要不要来我家？”的邀请。佐仓虽然对意料之外的展开感到困惑，却还是带着期待来到野崎家，没想到等着她的却是漫画原稿，不知不觉间就顺着野崎的指示开始进行涂黑作业。到这时佐仓才发现野崎是知名少女漫画家梦野咲子。千代艰辛的恋爱之路即将爆笑展开。</t>
@@ -142,7 +121,7 @@
     <t>月刊少女野崎君 第2号 新女主角就拜托咯</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/10</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/10</t>
   </si>
   <si>
     <t>真♂“女主”御子柴实琴闪亮登场，千代感受到前所未有的危机感。其实这位小御御是梅太郎的御用助手，他对于千代的出现感到非常不满。小御御平时喜欢招蜂引蝶，爱说羞耻台词事后又会觉得超级难为情，这种蹭的累性格让他在校园内超有人气。小御御很想在新人助手千代面前展现自己的前辈风采，用各种招数引诱千代向他请教，千代表示非常无奈。千代的告白之路上杀出小御御程咬金，革命尚未成功，千代仍需努力呀。</t>
@@ -154,7 +133,7 @@
     <t>月刊少女野崎君 第03号 暴力学长VS王子殿下</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/11</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/11</t>
   </si>
   <si>
     <t>小御御为小千代介绍了位新朋友，这位新朋友名叫鹿岛，与小御御不差上下，号称“校园的王子殿下”。玉树临风，王子气质，重点是毫不脸红的说出羞耻度爆表的台词。可惜美中不足的是，这位王子殿下，是个女的。而王子殿下的社长大人，又是一个拿拳头说话的汉子。王子VS汉子，小千代的脑洞又无限开大了呢。</t>
@@ -166,7 +145,7 @@
     <t>月刊少女野崎君 第04话 男人有时非战斗不可。</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/12</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/12</t>
   </si>
   <si>
     <t>本集没有我们小千代什么事，负责串场的小千代辛苦啦。小御御留宿梅太郎家，表面是留宿，其实小御御是为了向梅太郎讨教如何俘虏妹子心。别看小御御玉树临风，实际上是个女性交流障碍者。他所有关于妹子的情报都是从Galgame中获得的。这次留宿他也是为了让梅太郎帮他给游戏通关，可惜梅太郎现实生活中也是个恋爱白痴，俩人的Galgame攻略渐渐走向了奇怪的路线……</t>
@@ -178,7 +157,7 @@
     <t>月刊少女野崎君 第05话 「思考」「描绘」恋情的男子。</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/02</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/02</t>
   </si>
   <si>
     <t>梅太郎突然把家里打扫的一尘不染，小千代很好奇为何要这样。经询问原来是责任编辑要来，难道小千代又要有新的情敌出现么？脑海中出现的性感大姐姐形象让小千代受挫不已。现实都是残酷的，小千代的脑洞再一次落空，梅太郎的责编其实是个中年欧吉桑，而且这个欧吉桑看上去很不待见梅太郎……为什么梅太郎要对这个责编这么尽心尽责呢？这还得从梅太郎的上任责编说起……</t>
@@ -217,7 +196,7 @@
     </r>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/03</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/03</t>
   </si>
   <si>
     <t>梅太郎从生理上无法接受结月的存在。虽然结月的歌声美妙无比，但是本人的性格实在是……身为女子篮球队外援，没事干就去男子篮球部捣乱，打球从来不看规则，见人就用球砸，硬生生把篮球玩成躲避球。其中惨遭蹂躏的就是梅太郎的学弟若松，结月貌似看他不顺眼，打球每次都瞄准他。身心疲惫的若松向梅太郎诉苦，梅太郎好心建议让若松用漫画里的方式去跟结月摊牌，结果若松角色带入错误，把摊牌现场搞成了告白现场……</t>
@@ -229,7 +208,7 @@
     <t>月刊少女野崎君 第07话 漫画家思维的野崎君</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/04</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/04</t>
   </si>
   <si>
     <t>因提前完成原稿而无事可做的梅太郎在千代的邀请下一起去做休假该做的事。可明明在是千代脑海中的浪漫的约会，在漫画家脑的梅太郎同学加入进来后，竟变成了漫画素材收集作战，这场约会最终会怎么样呢？梅太郎和千代的关系会有进一步的发展吗？本集还有萌萌哒的小御御出场哦……</t>
@@ -241,7 +220,7 @@
     <t>月刊少女野崎君 第08话 校园王子（女生）的烦恼</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/05</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/05</t>
   </si>
   <si>
     <t>因为小堀前辈最近很冷淡烦恼的鹿岛，在小御御的建议下开始了对堀前辈的强迫盯人。而堀前辈一不小心暴露的梅太郎的漫画《恋爱吧》，更是让我们的王子殿下脑洞大开，鹿岛对堀前辈产生了怎样的误会呢？堀前辈又要怎么应对脑洞大开的鹿岛呢？他们两的关系会有进步吗？本集还收录了堀前辈的背景教室哦！看不会画背景的梅太郎怎么在漫画家的道路上继续前行……</t>
@@ -253,7 +232,7 @@
     <t>月刊少女野崎君 第09话 心跳不已的感觉，还足够吗？</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/06</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/06</t>
   </si>
   <si>
     <t>突然下起大雨，“白痴二人组”小千代和梅太郎都忘记带伞了。梅太郎原创吊炸天躲雨姿势，想护送小千代回家，结果以失败告终。帅气结月送伞给小千代神助攻，小千代撑伞和梅太郎漫步雨中。但是因为伞的偏向问题，小千代被妥妥的淋湿了！梅太郎你说好的“保护你不被雨淋到”呢！都小姐的漫画世界满都是狸猫，狸猫的精神污染已经最大化！都小姐终于勇敢反抗了！ 我要换责编！</t>
@@ -265,7 +244,7 @@
     <t>月刊少女野崎君 第10话 加强了羁绊、勒紧了缰绳。</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/07</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/07</t>
   </si>
   <si>
     <t>强攻女结月邀请弱受男若松看电影，若松在梅太郎的威逼利诱下决定前往。他想要出奇制胜打败结月，可是光靠可乐和爆米花来宣誓“主权”是没用的，还是乖乖陪着结月大人一起玩耍比较好哦！崛学长突然爱上了歌舞剧，鹿岛为了哄学长开心只好苦学唱歌，但她的歌声却吓到了梅太郎他们……</t>
@@ -295,7 +274,7 @@
     </r>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/08</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/08</t>
   </si>
   <si>
     <t>梅太郎初遇剑哥时十足的家庭主妇样啊！怪不得剑哥如此嫌弃他，不作就不会死啊！梅太郎觉得漫画剧情太平淡，他想通过日常生活来营造跌宕的剧情，可怜的小千代成了他的“惊喜”研究对象，各种吓一跳的“浪漫剧情”让小千代心跳不已！突然下起暴雨，若松、小崛前辈、小御御三人只好留宿梅太郎家，基情满满的睡衣派对即将上演！</t>
@@ -307,7 +286,7 @@
     <t>月刊少女野崎君 第12话 如果这都不算爱，谈何还有真情在。</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/09</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/09</t>
   </si>
   <si>
     <t>小千代的情人节巧克力到现在都没送出去，都怪梅太郎四处收集别人的恋爱八卦，可怜的小千代一直当跟屁虫，巧克力根本没机会送好么！梅太郎在同学们的误会中，度过了没有巧克力的情人节。小千代拿着没送出的巧克力准备拿给梅太郎吃，结果却和梅太郎撞个满怀，巧克力全掉地上啦，这下该怎么办呢？</t>
@@ -322,7 +301,7 @@
     <t>舌尖上的中国 第一季  第一集 自然的馈赠</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/01</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/01</t>
   </si>
   <si>
     <t>作为一个美食家，食物的美妙味感固然值得玩味，但是食物是从哪里来的？毫无疑问，我们从大自然中获得所有的食物，在我们走进厨房，走向餐桌之前，先让我们回归自然，看看她给我们的最初的馈赠。本集将选取生活在中国境内截然不同的地理环境(如海洋、草原，山林，盆地，湖泊)中的具有代表性的个人、家庭和群落为故事主角，以及由于自然环境的巨大差异(如干旱，潮湿，酷热，严寒)所带来的截然不同的饮食习惯和生活方式为故事背景，展现大自然是以怎样不同的方式赋予中国人食物，我们又是如何与自然和谐相处，从而了解在世代相传的传统生活方式中，通过各种不同的途径获取食物的故事。</t>
@@ -334,7 +313,7 @@
     <t>舌尖上的中国 第一季  第二集 主食的故事</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/02</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/02</t>
   </si>
   <si>
     <t>主食是餐桌上的主要食物，是人们所需能量的主要来源。从远古时代赖以充饥的自然谷物到如今人们餐桌上丰盛的、让人垂涎欲滴的美食，一个异彩纷呈、变化多端的主食世界呈现在你面前。本集着重描绘不同地域、不同民族、不同风貌的有关主食的故事，展现人们对主食的样貌、口感的追求，处理和加工主食的智慧，以及中国人对主食的深厚情感。</t>
@@ -343,7 +322,7 @@
     <t>舌尖上的中国 第一季  第三集 转化的灵感</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/03</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/03</t>
   </si>
   <si>
     <t>腐乳、豆豉、黄酒、泡菜，都有一个共同点，它们都具有一种芳香浓郁的特殊风味。这种味道是人与微生物携手贡献的成果。而这种手法被称作“发酵”。中国人的老祖宗，用一些坛坛罐罐，加上敏锐的直觉，打造了一个食物的新境界。要达到让食物转化成美食的境界，这其中要逾越障碍，要营造条件，要把握机缘，要经历挫败，从而由“吃”激发出最大的智慧。</t>
@@ -352,7 +331,7 @@
     <t>舌尖上的中国 第一季  第四集 时间的味道</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/04</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/04</t>
   </si>
   <si>
     <t>腌制食品，风干晾晒的干货，以及酱泡、冷冻等是中国历史最为久远的食物保存方式。时至今日，中国人依然对此类食品喜爱有加。本集涉及的美食主要有腊肉，火腿，烧腊，咸鱼(腌鱼)，腌菜，泡菜，渍菜，以及盐渍，糖渍，油浸，晾晒，风干，冷冻等不同食物保存方法，展现以此为基础和原材料的各种中国美食。贮藏食物从早先的保存食物方便携带发展到人们对食物滋味的不断追求，保鲜的技术中蕴涵了中国人的智慧，呈现着中国人的生活，同时“腌制发酵保鲜”也蕴含有中国人的情感与文化意象，如对故乡的思念，内心长时间蕴含的某种情感等等。</t>
@@ -361,7 +340,7 @@
     <t>舌尖上的中国 第一季  第五集 厨房的秘密</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/05</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/05</t>
   </si>
   <si>
     <t>与西方“菜生而鲜，食分而餐”的饮食传统文化相比，中国的菜肴更讲究色、香、味、形、器。而在这一系列意境的追逐中，中国的厨师个个都像魔术大师，都能把“水火交攻”的把戏玩到如火纯青的地步，这是8000年来的修炼。我们也在这漫长的过程中经历了煮、蒸、炒三次重要的飞跃，他们共同的本质无非是水火关系的调控，而至今世界上懂得蒸菜和炒菜的民族也仅此一家。本集将主要透过与具有精湛美食技艺的人有关的故事，一展中国人在厨房中的绝技。</t>
@@ -370,7 +349,7 @@
     <t>舌尖上的中国 第一季  第六集 五味的调和</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/06</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/06</t>
   </si>
   <si>
     <t>中国饮食素有“味”是灵魂之说。不同的原材料，不同的调味品，不同的调制手法，不同的调味大师，引领食物到达更加美味的境界。咸鲜，甜咸，酸甜，酸辣，麻辣，香辣，苦香，鲜香……每一种美食，经过中国人的精心烹饪制作，呈现了不同的味型与气质。本集要探究中国人烹制各种口味所需不同调味料，展示丰富的调味料的制作工艺，解密中国人高超的调味技术。10个故事，涉及川、鲁、粤、淮扬四大基础菜系和新疆、云南等有代表性的地域美食，通过展现丰富多彩的烹饪文化，讲述当下中国人的真实生活，表达他们的真实情感。中国饮食素有“味”是灵魂之说。不同的原材料，不同的调味品，不同的调制手法，不同的调味大师，引领食物到达更加美味的境界。咸鲜，甜咸，酸甜，酸辣，麻辣，香辣，苦香，鲜香……每一种美食，经过中国人的精心烹饪制作，呈现了不同的味型与气质。本集要探究中国人烹制各种口味所需不同调味料，展示丰富的调味料的制作工艺，解密中国人高超的调味技术。10个故事，涉及川、鲁、粤、淮扬四大基础菜系和新疆、云南等有代表性的地域美食，通过展现丰富多彩的烹饪文化，讲述当下中国人的真实生活，表达他们的真实情感。</t>
@@ -379,7 +358,7 @@
     <t>舌尖上的中国 第一季  第七集 我们的田野</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/07</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/07</t>
   </si>
   <si>
     <t>从餐桌回归大地。以餐桌上的美食为出发点，继而将视线投向生产出各种美食原材的广袤田野，探究美食的来源，它们是如何被人类以各种方式培育出来，并突出体现生态环保的农业生产方式，正是这样的方式才能为美食提供至关重要的品质保证——优良和清洁。</t>
@@ -391,7 +370,7 @@
     <t>舌尖上的中国 第二季  第1集 脚步</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/01</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/01</t>
   </si>
   <si>
     <t>“路菜”是先人保存食物的智慧，进而被演化成标志性的中国美食。味觉记忆的强大，往往让人们对故乡食物的迷恋十分牢固，甚至被赋予“乡愁”这样的文学语汇。该集将跟随那些奔波在路上的人们，品尝辛劳与汗水中的苦辣酸甜。“脚步”包含两层含义，一方面，每一种食物的获取都要经过漫长的历程。这一集中的主人公，一对养蜂夫妇追寻、收获蜂蜜的路程，就与蜜蜂们采集花蜜同样艰辛。据计算，蜜蜂生产一公斤蜂蜜需要采400万朵花。另一方面，食物本身也会跟随人们的脚步，在各地流转、变化。 从青海的盐湖，到西藏的密林深处，无不镌刻着人与食物迁徙的足迹。</t>
@@ -403,7 +382,7 @@
     <t>舌尖上的中国 第二季  第2集 心传</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/02</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/02</t>
   </si>
   <si>
     <t>中国烹饪无比神秘、难以复制，厨艺的传授仍然遵循口耳相传、心领神会的传统方式，祖先的智慧、家族的秘密、师徒的心诀、食客的领悟，美味的每一个瞬间，无不用心创造、代代传承。传统食物的流散和古老制作秘诀的消失是门派宗师和山野高人共同面对的难题。中国人延续着对世界和人生特有的感知方式，每个平凡的人都在某个瞬间参与创造了舌尖上的非凡史诗。</t>
@@ -412,7 +391,7 @@
     <t>舌尖上的中国 第二季  第3集 时节</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/03</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/03</t>
   </si>
   <si>
     <t>“不时，不食”是中国人饮食最重要的特征。《时节》将通过捕捉节令美食，展现传统中国人对自然的依赖与敬畏，表达我们对气候变幻的敏锐感知。</t>
@@ -421,7 +400,7 @@
     <t>舌尖上的中国 第二季  第4集 家常</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/04</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/04</t>
   </si>
   <si>
     <t>该期舌尖上的中国为您带来各地的家常菜，凝聚着家人的爱。节目中的家常菜有山西的家常面食、山西饸饹、天门蒸菜、上海红烧肉、四川泡菜、山东西瓜酱、江苏蒲菜水饺，澳门甜食以及适合孕妇坐月子时吃的广东金银菜南北杏蜜枣炖白肺等等，让您流口水的美食，不容错过。</t>
@@ -430,7 +409,7 @@
     <t>舌尖上的中国 第二季  第5集 相逢</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/05</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/05</t>
   </si>
   <si>
     <t>大多数美食都是不同食材组合、碰撞产生的裂变性奇观，美食之间的相逢给了人们在味觉上的享受，人类的活动促成了食物的相聚，而食物的离合也在调动着人类的聚散。美食的相逢有时恰恰印证了中国传统的“缘分”。</t>
@@ -439,7 +418,7 @@
     <t>舌尖上的中国 第二季  第6集 秘境</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/06</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/06</t>
   </si>
   <si>
     <t>遥远的山林、江河、草原、沙漠，这些难以到达的地方隐藏着不为人知的美味，人类与自然携手让古老的美味延续至今。 秘境，带我们发现和寻找与众不同的人和食物。</t>
@@ -448,7 +427,7 @@
     <t>舌尖上的中国 第二季  第7集 三餐</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/07</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/07</t>
   </si>
   <si>
     <t>一日三餐几乎是人类共同的饮食制度，同样的饭食在中国却变幻出不同的生活节奏，塑造出各异的人生感受。对美味的渴望源自人类的本能，然而关于美食每个人又有不同甚至相反的选择。天津煎饼果子、重庆早餐小面、广州花式早茶、湘乡咸鸭蛋、彝族砣砣肉。各式各样的美食，背后也有着各自的故事，有人爱吃肉，有人喜食素；有人追求成功，有人追求内心的平和。</t>
@@ -460,7 +439,7 @@
     <t>齐木楠雄的灾难 第一季 01</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/01</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/01</t>
   </si>
   <si>
     <t>高中生·齐木楠雄是超能力者。心灵感应、念动力、透视、预知、瞬间移动、千里眼等，不论任何事情都自由自在。但这任谁都羡慕不已的最强能力，实际上对于本人而言是引来灾难的不幸元凶。因此，他在别人面前封印了超能力，以不起眼、不和他人有所牵扯为信条，默默无闻地过日子。但不知为何，他的身边总是聚集着不可思议的人类（生物），风暴般的灾难接连不断地降临！</t>
@@ -475,7 +454,7 @@
     <t>齐木楠雄的灾难 第一季 02</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/02</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/02</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572656</t>
@@ -484,7 +463,7 @@
     <t>齐木楠雄的灾难 第一季 03</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/03</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/03</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572657</t>
@@ -493,7 +472,7 @@
     <t>齐木楠雄的灾难 第一季 04</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/04</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/04</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572663</t>
@@ -502,7 +481,7 @@
     <t>齐木楠雄的灾难 第一季 05</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/05</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/05</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572665</t>
@@ -511,7 +490,7 @@
     <t>齐木楠雄的灾难 第一季 06</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/06</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/06</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572670</t>
@@ -520,7 +499,7 @@
     <t>齐木楠雄的灾难 第一季 07</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/07</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/07</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572682</t>
@@ -529,7 +508,7 @@
     <t>齐木楠雄的灾难 第一季 08</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/08</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/08</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572684</t>
@@ -538,7 +517,7 @@
     <t>齐木楠雄的灾难 第一季 09</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/09</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/09</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572686</t>
@@ -547,7 +526,7 @@
     <t>齐木楠雄的灾难 第一季 10</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/10</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/10</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572692</t>
@@ -556,7 +535,7 @@
     <t>齐木楠雄的灾难 第一季 11</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/11</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/11</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572564</t>
@@ -565,7 +544,7 @@
     <t>齐木楠雄的灾难 第一季 12</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/12</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/12</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572695</t>
@@ -574,7 +553,7 @@
     <t>齐木楠雄的灾难 第一季 13</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/13</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/13</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572698</t>
@@ -583,7 +562,7 @@
     <t>齐木楠雄的灾难 第一季 14</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/14</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/14</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572761</t>
@@ -592,7 +571,7 @@
     <t>齐木楠雄的灾难 第一季 15</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/15</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/15</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572765</t>
@@ -601,7 +580,7 @@
     <t>齐木楠雄的灾难 第一季 16</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/16</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/16</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11072419</t>
@@ -610,7 +589,7 @@
     <t>齐木楠雄的灾难 第一季 17</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/17</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/17</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11228469</t>
@@ -619,7 +598,7 @@
     <t>齐木楠雄的灾难 第一季 18</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/18</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/18</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11557935</t>
@@ -628,7 +607,7 @@
     <t>齐木楠雄的灾难 第一季 19</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/19</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/19</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11723079</t>
@@ -637,7 +616,7 @@
     <t>齐木楠雄的灾难 第一季 20</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/20</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/20</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=11911660</t>
@@ -646,7 +625,7 @@
     <t>齐木楠雄的灾难 第一季 21</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/21</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/21</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=12077709</t>
@@ -655,7 +634,7 @@
     <t>齐木楠雄的灾难 第一季 22</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/22</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/22</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=12246783</t>
@@ -664,7 +643,7 @@
     <t>齐木楠雄的灾难 第一季 23</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/23</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/23</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=12432506</t>
@@ -673,7 +652,7 @@
     <t>齐木楠雄的灾难 第一季 24</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/24</t>
+    <t>https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/24</t>
   </si>
   <si>
     <t>https://api.menhood.wang/dplayer/v3/bilibili/?cid=47365070</t>
@@ -685,7 +664,7 @@
     <t>传承 第二季 第一集 江湖</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/01</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/01</t>
   </si>
   <si>
     <t>江湖是文化创造的母体和基因，也是传承延续的动力和竞争。本集记录了五位传承人：痴迷少林七十二绝技“水上漂”的武僧释理亮、四川成都“最后一个堂倌” 路明章、柯尔克孜族驯鹰习俗国家级传承人库尔曼、土家族吊角楼营造技艺国家级传承人彭善尧，还有浙江磐安县炼火“闹火海”项目的能手陈有根。行走江湖，每个人都必须拼尽全力证明自己。那些被世道和人心反复打磨过的人格和讲究，才是真正立得住、传得下、守得牢的传承。</t>
@@ -700,7 +679,7 @@
     <t>传承 第二季 第二集 绝技</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/02</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/02</t>
   </si>
   <si>
     <t>本集主要表现非遗文化中的各种绝妙技艺。在中国的非遗文化中，存在着各种绝妙技艺。这些民间绝技之所以绝，是因为人依靠着自己的身体与智慧，实现了技艺的至高表现，充分展示了中华传统文化的魅力。本集所表现的五个非遗项目：鄂温克族驯鹿习俗、麻山绝技、里下河渔具渔法、乐清首饰龙制作技艺和巧家小碗红糖制作技艺，都是非遗传承人身怀的绝技。是祖先留下来、本人几十年磨出来的，并非一日之功。绝技未绝，继往开来，生活的理想就是理想的生活。</t>
@@ -712,7 +691,7 @@
     <t>传承 第二季 第三集 德行</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/03</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/03</t>
   </si>
   <si>
     <t>人们将祖先留下的技艺传承至今，形式在变、时代在变，但蕴藏其中的规矩与原则不变。德是内在修养，行是外化举止。鄂伦春人狩猎懂得禁忌；武当传人练轻功懂得知晓规矩谦卑；斫制古琴追求天人合一；苦练独竹漂需要勇气；木活字印刷族谱以示虔诚。祖先的智慧传承至今，早已超脱了技艺本身而在物外，手艺功夫随时代褪色，普世的德行、为人处世的哲理却熠熠生辉。</t>
@@ -724,7 +703,7 @@
     <t>传承 第二季 第四集 师徒</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/04</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/04</t>
   </si>
   <si>
     <t>传道，谓修己治人之道；授业，谓古文六艺之业；解惑，谓解此二者之惑。”师徒间的传承，不仅是技法、学识的传递，也是做人、品德的授受。民间手艺的延续，靠的是家庭世代相传和拜师学艺，师徒间的传承，让众多优秀的民间手工技法焕发出旺盛的生命力。本期节目通过5个不同的故事，一一阐释传统技艺传承中的“师徒”关系。</t>
@@ -733,7 +712,7 @@
     <t>传承 第二季 第五集 心传</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/05</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/05</t>
   </si>
   <si>
     <t>不忘初心，方得始终，从心开始，勇猛精进，历来是中国人的信仰。心传是智者心与心跨越时空的沟通，投盐入海，让个体融入族群，让认同成为驱动，让理解形成共识，这就是中华文明海纳百川的心传之法。</t>
@@ -745,7 +724,7 @@
     <t>传承 第二季 第六集 流变</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/06</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/06</t>
   </si>
   <si>
     <t>本集主要是表达在传承中创新发展的问题。“传承”一词来源于传递教法的一种传统形式。如今世界变了，适当创新是必要的。本集记录了延绳钓捕捞技艺、毛皮滑雪板技艺、蒙古长调民歌、兴化垛田生产技艺和峨眉武术五个技艺。变与不变，全都存乎于心的期望与动机，还在于行的累积与渐变。所谓流变，就是随时间而来的智慧。</t>
@@ -757,7 +736,7 @@
     <t>传承 第二季 第七集 家园</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/07</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/07</t>
   </si>
   <si>
     <t xml:space="preserve">家园，是一种生命的庇护。蒙古人的家园在骆驼背上，哈萨克族人的家园在不停地转场路途中。家园就是衣食住行的普通生活，江西的万年贡米，重庆的荣昌夏布，西藏的芒康盐井。理想家园就是精神和心灵的至上归宿，就是千古不变的人文感召。文化是民族的血脉，守护传统技艺，坚守人民的精神家园。 </t>
@@ -772,7 +751,7 @@
     <t>第一集：海洋——潜入深海</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/01</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/01</t>
   </si>
   <si>
     <t>人类需要呼吸空气，因此无法在水中存活。但是人类找到了水下生活的方式，他们可以探索丰富多彩的海洋。本集将带您走进蓝色的海洋，为您讲述一些关于智慧和勇敢的神奇故事。太平洋有一位能与鲨鱼交流的“鲨语者”。一位巴西渔民可以跟海豚协作捕捉胭脂鱼。勇敢的加西亚人不畏死亡，他们在岩石上拾藤壶，一千公斤可卖200英镑。在印度尼西亚，一位伟大的捕鲸人架着自制的小船，凭着手中的鱼叉捕获了一头抹香鲸。苏禄海上的巴焦“海上吉普赛人”常年生活在水上，如果他们登上陆地，就会产生“晕陆”！我们随着帕阿林渔民潜入40米水下的危险世界，这些年轻人可以通过连接在一台柴油机的网状管道呼吸，然后用一张大网捕获上前的鱼。本集还可以看到冲浪原来发源于热爱海洋的玻利尼西亚人。在婆罗洲，一位渔民可以拿着鱼叉潜入20米深的水下捕鱼。</t>
@@ -784,7 +763,7 @@
     <t>第二集：沙漠——火炉中的生活</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/02</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/02</t>
   </si>
   <si>
     <t>没有食物，人能够存活数个星期，但是没有水，人只能存活数天。水是生命的必需物质。然而，全世界有数百万人生活在干旱的沙漠地带。在《人类星球》的第二集，摄制组将向您展示，在世界上最干旱的地区，人们为了寻找水源面临着多么艰巨的挑战，以及他们巧妙的解决之道。在马里，马马杜必须穿越沙尘暴，将他的牛群赶到一个遥远的湖边，然而一群沙漠象赶在了他的前面。他能穿过象群的封锁吗？图布族的妇女和儿童连续走了数个星期，在撒哈拉沙丘中穿行却不会迷失方向。年轻的谢德在这片沙海中行走了三天，她能找到那片最后的绿洲吗？在干旱最严重的时候，我们看到了一个疯狂而壮观的景象：两千名男子蜂拥而入安多构湖，在这条干涸的河流中捕捞搁浅的鱼类。当雨水再次降临沙漠时，又到了欢笑、庆祝和表达爱的季节。尼日尔的沃达贝族男子化好妆，跳起了迷人的求爱舞蹈，他们还会参加选美比赛。</t>
@@ -793,7 +772,7 @@
     <t>第三集：北极——冰天雪地中的生活</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/03</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/03</t>
   </si>
   <si>
     <t>北极是地球上环境最恶劣的地区：粮食几乎无法生长，连续数月处于黑暗之中，气温常年处于冰点之下。然而，这里却生活着四百万的居民。《人类星球》将向您讲述这些神奇居民的故事，看看他们是如何在这片冰天雪地中生存的。春天，阿莫斯和卡尔·弗雷德里克带着猎狗穿越海冰，他们准备去捕捉真实的海中怪兽——格陵兰鲨！因纽特拾贝者趁着退潮，冒着生命危险在海冰之下拾贝，为了获取这些食物，他们正在跟时间赛跑。在马尼托巴省，丘吉尔一家的孩子们开始了世界上最危险的要糖果游戏：他们不顾生命危险，跟他们小镇街上致命的北极熊狭路相逢。谁会获得那美味的糖果呢？</t>
@@ -802,7 +781,7 @@
     <t>第四集：丛林——森林生存者</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/04</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/04</t>
   </si>
   <si>
     <t>和地球上其他地区相比，雨林拥有更多的动植物物种。但是，对于生活在雨林中的人类而言，雨林生活可不是那么容易。要想在雨林中存活，需要具备足够的生存技能、智慧和勇气。巴西马提斯人自制4米长吹管，悄无声息地近距离捕猎猴子。在刚果森林深处，勇敢的泰特仅凭树藤就能爬上大树，赶走愤怒的蜂群为他的家庭收集蜂蜜。委内瑞拉的皮尔欧印地安区部落的三个孩子冒死深入丛林捕获狼蛛，然后烤熟了当做午餐。在西巴布亚省，科罗威部落人在35米高的树上建造房屋，展示了其高超的建筑技能。最令人难忘的是，摄制组在巴西参与了一次特别的空中巡视任务，寻找一个神秘部落。</t>
@@ -811,7 +790,7 @@
     <t>第五集：高山——空气稀薄之地的生活</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/05</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/05</t>
   </si>
   <si>
     <t>从茂密的森林到让人几乎无法呼吸的光秃秃的顶峰，在山上，你爬得越高，生活就越艰难。《人类星球》探索在极高海拔恶劣的自然环境下，人类怎样用不同寻常的方式生存。在蒙古西部的阿尔泰山，大片的开阔地带对于捕猎动物来说非常不利。所以当地人和金雕形成了一种出乎意料的合作关系，它们替当地人捕猎。在埃塞俄比亚瑟门山的陡峭悬崖上，摄制组加入了一个男孩和令人恐惧的狒狒的战争。它们决心要掠夺这个家庭少得可怜的庄稼收成。在喜马拉雅山地国家尼泊尔——世界屋脊，摄制组看到了非同寻常的葬礼：天葬。在一个没有多少木头可供葬礼焚烧的国度，并且掩埋死者也几乎不可能，尸体在对自然最终的敬畏中，被献给秃鹰大快朵颐。</t>
@@ -820,7 +799,7 @@
     <t>第六集：草原——力量之源</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/06</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/06</t>
   </si>
   <si>
     <t>草原养育了全世界。在几千年的时间里，人类学会了怎样在草原种植作物，并且驯养生活在这里的动物。我们的成功推动人口达到七十亿。但是这一集告诉我们，即使是在今天，“伊甸园”的生活也不总是美好的。摄制组和肯尼亚的多罗波人一起行走，他们英勇无畏，试图把一群饥饿的狮子从它们刚捕获的猎物边吓跑。摄制组和蒙古骑手一起在大草原上疾驰，他们被称作“生在马鞍上的人”。马赛人祖祖辈辈和自然建立起了完美的合作关系，他们的孩子必须和鸟类对话！蜂蜜向导帮他们找到甜蜜的盛宴，不过他们必须回报这种善意。</t>
@@ -829,7 +808,7 @@
     <t>第七集：河流——亦敌亦友</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/07</t>
+    <t>https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/07</t>
   </si>
   <si>
     <t>河流提供生活最重要的东西：新鲜食物和水。它们经常作为自然的高速公路，并且让我们能在地球上的任何环境中生活。但是河流也会洪水泛滥、冰冻，或者完全消失。《人类星球》跟随山姆·杨，一个老挝渔民，走过用电线高高架在湄公河急流上的索道，这是他往返工作地的必经之路。摄制组也得以一瞥桑布鲁部落的人和野生大象不同寻常的合作关系。他们一起在肯尼亚北部的干枯河床上寻找水源。最后，摄制组介绍一位必须带自己的两个孩子沿着一条冰冻河流进行六天远足的父亲。这是世界上最危险的学校。还有渥太华的冰坝爆破，这是他们保住城市的最好选择。</t>
@@ -838,7 +817,7 @@
     <t>第八集：城市——都市丛林生存法则</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/01</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/01</t>
   </si>
   <si>
     <t>镜头回到人类自创的“丛林”——城市。全球超过半数人口居住在城市。人类曾经刻意将城市与自然分割开来，但是自然无处不在。从夜间吸血的臭虫到餐厅里成群的老鼠，城市中还有很多动物和人类相处。并非所有居住在城市里的动物都惹人讨厌。在摩洛哥古城菲斯，皮革厂利用野鸽粪便浸泡生皮革。现代化的迪拜人仍然依靠猎鹰打猎。印度斋普尔郊外，一位布什诺妇女正在用母乳喂养一头离群的小鹿。人类已经认识到自然是人类赖以生存的关键。美国曼哈顿的一些居民在房顶养殖蜜蜂。在阿联酋马斯达尔，英国建筑大师诺曼·福斯特正在建造一座零碳零废物的未来之城。这难道就是未来的城市吗？人类开始意识到，只有保护好自然环境，人类才能繁衍生息。</t>
@@ -862,7 +841,7 @@
     <t>第2话：連接的意義</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/02</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/02</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作03的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -874,7 +853,7 @@
     <t>第3话：戰鬥人偶</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/03</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/03</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作04的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -886,7 +865,7 @@
     <t>第4话：比翼雙飛</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/04</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/04</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作05的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -898,7 +877,7 @@
     <t>第5话：你的莖刺 對我刻下印記</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/05</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/05</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作06的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到¼</t>
@@ -910,7 +889,7 @@
     <t>第6话：DARLING in the FRANXX</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/06</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/06</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作07的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -922,7 +901,7 @@
     <t>第7话：流星MORATORIUM</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/07</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/07</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作08的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008_</t>
@@ -934,7 +913,7 @@
     <t>第8话：男生X女生</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/08</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/08</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作09的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到¼</t>
@@ -946,7 +925,7 @@
     <t>第9话：TRIANGLE BOMB</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/09</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/09</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作10的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到我的DARLING”</t>
@@ -958,7 +937,7 @@
     <t>第10话：永遠的都市</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/10</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/10</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作11的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
@@ -970,7 +949,7 @@
     <t>第11话：調換搭檔</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/11</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/11</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作12的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -982,7 +961,7 @@
     <t>第12话：花園/起始之庭</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/12</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/12</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作13的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
@@ -994,7 +973,7 @@
     <t>第13话：魔物與王子殿下</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/13</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/13</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作14的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -1006,7 +985,7 @@
     <t>第14话：罪與告白</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/14</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/14</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作15的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
@@ -1018,7 +997,7 @@
     <t>第15话：比翼鳥</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/15</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/15</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作16的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
@@ -1030,7 +1009,7 @@
     <t>第16话：我們的日常</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/16</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/16</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作17的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -1042,7 +1021,7 @@
     <t>第17话：樂園</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/17</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/17</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作18的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到我的DARLING”</t>
@@ -1054,7 +1033,7 @@
     <t>第18话：櫻花綻開之時</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/18</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/18</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作19的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -1066,7 +1045,7 @@
     <t>第19话：偽人類們</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/19</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/19</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作20的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -1078,7 +1057,7 @@
     <t>第20话：新世界</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/20</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/20</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作21的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008_</t>
@@ -1090,7 +1069,7 @@
     <t>第21话：為了最愛的你</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/21</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/21</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作22的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到ʁ</t>
@@ -1102,7 +1081,7 @@
     <t>第22话：觀星者</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/22</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/22</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作23的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
@@ -1114,7 +1093,7 @@
     <t>第23话：DARLING in the FRANXX</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/23</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/23</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作24的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到摣ⴳ㠶㌷</t>
@@ -1126,7 +1105,7 @@
     <t>第24话：不要離開我</t>
   </si>
   <si>
-    <t>https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/24</t>
+    <t>https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/24</t>
   </si>
   <si>
     <t>遥远的未来，人类在荒废的大地上建设了移动要塞都市“种植园”，并讴歌着文明。在那当中建造的驾驶员居住设施“米斯特汀”，通称“鸟笼”。孩子们就住在那里，他们被告知的使命，只有战斗。敌人是一切都被谜团覆盖的巨大生命体“叫龙”。为了对抗尚未见过的敌人，孩子们乘上被称为“FRANXX”的机器人。有一位曾被称作神童的少年。代号016。名字是广。但他现在却跌落谷底。是不被人需要的存在。如果没有乘上FRANXX，就如同不存在一样。在这样的广面前，某天，一位被称作25的神秘少女出现了。她的额头，长着两根艳丽的角。“——找到_x0008_</t>
@@ -1140,10 +1119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1170,32 +1149,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,13 +1158,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1224,7 +1172,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,36 +1219,6 @@
     <font>
       <b/>
       <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1277,9 +1234,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1291,16 +1256,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,7 +1306,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1360,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,121 +1414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,31 +1432,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,6 +1497,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1532,6 +1531,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1551,24 +1559,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1580,6 +1570,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,36 +1597,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1636,131 +1615,131 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2092,27 +2071,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L95"/>
+  <dimension ref="A1:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I94" sqref="A1:K95"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="11.25" customWidth="1"/>
-    <col min="3" max="3" width="34.125" customWidth="1"/>
-    <col min="4" max="4" width="32.875" customWidth="1"/>
-    <col min="5" max="5" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="34.1296296296296" customWidth="1"/>
+    <col min="4" max="4" width="32.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="94.1111111111111" customWidth="1"/>
     <col min="7" max="7" width="88.25" customWidth="1"/>
     <col min="8" max="8" width="13.25" customWidth="1"/>
     <col min="9" max="9" width="50" customWidth="1"/>
-    <col min="10" max="10" width="21.875" customWidth="1"/>
+    <col min="10" max="10" width="21.8796296296296" customWidth="1"/>
     <col min="11" max="11" width="15.75" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:12">
+    <row r="1" ht="17.4" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2159,28 +2138,28 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>2018</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2">
-        <v>2001</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
       <c r="J2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2188,34 +2167,34 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3">
+        <v>2014</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
-        <v>2001</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2229,25 +2208,25 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H4">
         <v>2018</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
@@ -2258,34 +2237,34 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H5">
         <v>2014</v>
       </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="K5" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2293,34 +2272,34 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
         <v>27</v>
       </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="I6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
       <c r="K6" s="1">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2328,31 +2307,31 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H7">
         <v>2014</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1">
         <v>12</v>
@@ -2363,31 +2342,31 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8">
         <v>2014</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1">
         <v>12</v>
@@ -2398,66 +2377,66 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9">
         <v>2014</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K9" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" ht="16.8" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10">
         <v>2014</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K10" s="1">
         <v>12</v>
@@ -2468,66 +2447,66 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H11">
         <v>2014</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K11" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:11">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H12">
         <v>2014</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K12" s="1">
         <v>12</v>
@@ -2538,31 +2517,31 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H13">
         <v>2014</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K13" s="1">
         <v>12</v>
@@ -2573,66 +2552,66 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H14">
         <v>2014</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" ht="16.8" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H15">
         <v>2014</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K15" s="1">
         <v>12</v>
@@ -2643,69 +2622,69 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16">
         <v>2014</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K16" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="1:11">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17">
+        <v>2012</v>
+      </c>
+      <c r="I17" t="s">
         <v>15</v>
       </c>
-      <c r="G17" t="s">
-        <v>78</v>
-      </c>
-      <c r="H17">
-        <v>2014</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>79</v>
-      </c>
       <c r="J17" s="3" t="s">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="K17" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2713,34 +2692,34 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18">
+        <v>2012</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18">
-        <v>2014</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="K18" s="1">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2748,10 +2727,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
@@ -2760,7 +2739,7 @@
         <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
         <v>87</v>
@@ -2769,10 +2748,10 @@
         <v>2012</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K19" s="1">
         <v>7</v>
@@ -2783,31 +2762,31 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
         <v>90</v>
-      </c>
-      <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>91</v>
       </c>
       <c r="H20">
         <v>2012</v>
       </c>
       <c r="I20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K20" s="1">
         <v>7</v>
@@ -2818,31 +2797,31 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
         <v>93</v>
-      </c>
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>94</v>
       </c>
       <c r="H21">
         <v>2012</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K21" s="1">
         <v>7</v>
@@ -2853,31 +2832,31 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
         <v>96</v>
-      </c>
-      <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>97</v>
       </c>
       <c r="H22">
         <v>2012</v>
       </c>
       <c r="I22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K22" s="1">
         <v>7</v>
@@ -2888,31 +2867,31 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
         <v>99</v>
-      </c>
-      <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>100</v>
       </c>
       <c r="H23">
         <v>2012</v>
       </c>
       <c r="I23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="K23" s="1">
         <v>7</v>
@@ -2923,10 +2902,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D24" t="s">
         <v>101</v>
@@ -2935,19 +2914,19 @@
         <v>102</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
         <v>103</v>
       </c>
       <c r="H24">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="K24" s="1">
         <v>7</v>
@@ -2958,31 +2937,31 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25">
+        <v>2014</v>
+      </c>
+      <c r="I25" t="s">
+        <v>15</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>106</v>
-      </c>
-      <c r="H25">
-        <v>2012</v>
-      </c>
-      <c r="I25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="K25" s="1">
         <v>7</v>
@@ -2993,10 +2972,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C26" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D26" t="s">
         <v>108</v>
@@ -3005,7 +2984,7 @@
         <v>109</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s">
         <v>110</v>
@@ -3014,10 +2993,10 @@
         <v>2014</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K26" s="1">
         <v>7</v>
@@ -3028,31 +3007,31 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
         <v>113</v>
-      </c>
-      <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>114</v>
       </c>
       <c r="H27">
         <v>2014</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K27" s="1">
         <v>7</v>
@@ -3063,31 +3042,31 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C28" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
         <v>116</v>
-      </c>
-      <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>117</v>
       </c>
       <c r="H28">
         <v>2014</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K28" s="1">
         <v>7</v>
@@ -3098,31 +3077,31 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C29" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
         <v>119</v>
-      </c>
-      <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>120</v>
       </c>
       <c r="H29">
         <v>2014</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K29" s="1">
         <v>7</v>
@@ -3133,31 +3112,31 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D30" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
         <v>122</v>
-      </c>
-      <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>123</v>
       </c>
       <c r="H30">
         <v>2014</v>
       </c>
       <c r="I30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="K30" s="1">
         <v>7</v>
@@ -3168,10 +3147,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D31" t="s">
         <v>124</v>
@@ -3180,22 +3159,22 @@
         <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s">
         <v>126</v>
       </c>
       <c r="H31">
-        <v>2014</v>
-      </c>
-      <c r="I31" t="s">
-        <v>17</v>
+        <v>2016</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>127</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="K31" s="1">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -3203,34 +3182,34 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>126</v>
+      </c>
+      <c r="H32">
+        <v>2016</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="J32" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>129</v>
-      </c>
-      <c r="H32">
-        <v>2014</v>
-      </c>
-      <c r="I32" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>111</v>
-      </c>
       <c r="K32" s="1">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -3238,22 +3217,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H33">
         <v>2016</v>
@@ -3262,7 +3241,7 @@
         <v>134</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K33" s="1">
         <v>24</v>
@@ -3273,31 +3252,31 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D34" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>137</v>
-      </c>
       <c r="F34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H34">
         <v>2016</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K34" s="1">
         <v>24</v>
@@ -3308,31 +3287,31 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D35" t="s">
+        <v>138</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>140</v>
-      </c>
       <c r="F35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G35" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H35">
         <v>2016</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K35" s="1">
         <v>24</v>
@@ -3343,31 +3322,31 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>143</v>
-      </c>
       <c r="F36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G36" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H36">
         <v>2016</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K36" s="1">
         <v>24</v>
@@ -3378,31 +3357,31 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>146</v>
-      </c>
       <c r="F37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G37" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H37">
         <v>2016</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K37" s="1">
         <v>24</v>
@@ -3413,31 +3392,31 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>149</v>
-      </c>
       <c r="F38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H38">
         <v>2016</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K38" s="1">
         <v>24</v>
@@ -3448,31 +3427,31 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>152</v>
-      </c>
       <c r="F39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H39">
         <v>2016</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K39" s="1">
         <v>24</v>
@@ -3483,31 +3462,31 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="F40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H40">
         <v>2016</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K40" s="1">
         <v>24</v>
@@ -3518,31 +3497,31 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D41" t="s">
+        <v>156</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="F41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G41" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H41">
         <v>2016</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K41" s="1">
         <v>24</v>
@@ -3553,31 +3532,31 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D42" t="s">
+        <v>159</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>161</v>
-      </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G42" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H42">
         <v>2016</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K42" s="1">
         <v>24</v>
@@ -3588,31 +3567,31 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D43" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>164</v>
-      </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G43" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H43">
         <v>2016</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K43" s="1">
         <v>24</v>
@@ -3623,31 +3602,31 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C44" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>167</v>
-      </c>
       <c r="F44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H44">
         <v>2016</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K44" s="1">
         <v>24</v>
@@ -3658,31 +3637,31 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
+        <v>168</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>170</v>
-      </c>
       <c r="F45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H45">
         <v>2016</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K45" s="1">
         <v>24</v>
@@ -3693,31 +3672,31 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C46" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D46" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>173</v>
-      </c>
       <c r="F46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G46" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H46">
         <v>2016</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K46" s="1">
         <v>24</v>
@@ -3728,31 +3707,31 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C47" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>176</v>
-      </c>
       <c r="F47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G47" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H47">
         <v>2016</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K47" s="1">
         <v>24</v>
@@ -3763,31 +3742,31 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C48" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
+        <v>177</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>179</v>
-      </c>
       <c r="F48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G48" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H48">
         <v>2016</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K48" s="1">
         <v>24</v>
@@ -3798,31 +3777,31 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D49" t="s">
+        <v>180</v>
+      </c>
+      <c r="E49" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>182</v>
-      </c>
       <c r="F49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G49" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H49">
         <v>2016</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K49" s="1">
         <v>24</v>
@@ -3833,31 +3812,31 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="F50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G50" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H50">
         <v>2016</v>
       </c>
       <c r="I50" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K50" s="1">
         <v>24</v>
@@ -3868,31 +3847,31 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D51" t="s">
+        <v>186</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>188</v>
-      </c>
       <c r="F51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H51">
         <v>2016</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K51" s="1">
         <v>24</v>
@@ -3903,31 +3882,31 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D52" t="s">
+        <v>189</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>191</v>
-      </c>
       <c r="F52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G52" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H52">
         <v>2016</v>
       </c>
       <c r="I52" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K52" s="1">
         <v>24</v>
@@ -3938,31 +3917,31 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D53" t="s">
+        <v>192</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>194</v>
-      </c>
       <c r="F53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G53" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H53">
         <v>2016</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K53" s="1">
         <v>24</v>
@@ -3973,31 +3952,31 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D54" t="s">
+        <v>195</v>
+      </c>
+      <c r="E54" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>197</v>
-      </c>
       <c r="F54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G54" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="H54">
         <v>2016</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K54" s="1">
         <v>24</v>
@@ -4008,10 +3987,10 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C55" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="D55" t="s">
         <v>199</v>
@@ -4020,22 +3999,22 @@
         <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G55" t="s">
-        <v>133</v>
+        <v>201</v>
       </c>
       <c r="H55">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="K55" s="1">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4043,34 +4022,34 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C56" t="s">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="D56" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56">
+        <v>2018</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>133</v>
-      </c>
-      <c r="H56">
-        <v>2016</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>135</v>
-      </c>
       <c r="K56" s="1">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4078,31 +4057,31 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C57" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D57" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G57" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H57">
         <v>2018</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K57" s="1">
         <v>7</v>
@@ -4113,31 +4092,31 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H58">
         <v>2018</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K58" s="1">
         <v>7</v>
@@ -4148,10 +4127,10 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D59" t="s">
         <v>215</v>
@@ -4160,7 +4139,7 @@
         <v>216</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G59" t="s">
         <v>217</v>
@@ -4172,7 +4151,7 @@
         <v>218</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K59" s="1">
         <v>7</v>
@@ -4183,10 +4162,10 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D60" t="s">
         <v>219</v>
@@ -4195,7 +4174,7 @@
         <v>220</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
         <v>221</v>
@@ -4204,10 +4183,10 @@
         <v>2018</v>
       </c>
       <c r="I60" s="3" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="J60" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K60" s="1">
         <v>7</v>
@@ -4218,31 +4197,31 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="D61" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H61">
         <v>2018</v>
       </c>
       <c r="I61" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K61" s="1">
         <v>7</v>
@@ -4253,34 +4232,34 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C62" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="D62" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>230</v>
+      </c>
+      <c r="H62">
+        <v>2011</v>
+      </c>
+      <c r="I62" t="s">
         <v>15</v>
       </c>
-      <c r="G62" t="s">
-        <v>228</v>
-      </c>
-      <c r="H62">
-        <v>2018</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>229</v>
-      </c>
       <c r="J62" s="3" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K62" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4288,34 +4267,34 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C63" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="D63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E63" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>234</v>
+      </c>
+      <c r="H63">
+        <v>2011</v>
+      </c>
+      <c r="I63" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>232</v>
-      </c>
-      <c r="H63">
-        <v>2018</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>210</v>
-      </c>
       <c r="K63" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4323,10 +4302,10 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C64" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D64" t="s">
         <v>235</v>
@@ -4335,7 +4314,7 @@
         <v>236</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
         <v>237</v>
@@ -4344,10 +4323,10 @@
         <v>2011</v>
       </c>
       <c r="I64" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J64" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K64" s="1">
         <v>8</v>
@@ -4358,31 +4337,31 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E65" s="3" t="s">
+      <c r="F65" t="s">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s">
         <v>240</v>
-      </c>
-      <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>241</v>
       </c>
       <c r="H65">
         <v>2011</v>
       </c>
       <c r="I65" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J65" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K65" s="1">
         <v>8</v>
@@ -4393,31 +4372,31 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C66" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D66" t="s">
+        <v>241</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
         <v>243</v>
-      </c>
-      <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>244</v>
       </c>
       <c r="H66">
         <v>2011</v>
       </c>
       <c r="I66" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J66" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K66" s="1">
         <v>8</v>
@@ -4428,31 +4407,31 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C67" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D67" t="s">
+        <v>244</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
         <v>246</v>
-      </c>
-      <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>247</v>
       </c>
       <c r="H67">
         <v>2011</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K67" s="1">
         <v>8</v>
@@ -4463,31 +4442,31 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D68" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
         <v>249</v>
-      </c>
-      <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>250</v>
       </c>
       <c r="H68">
         <v>2011</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J68" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K68" s="1">
         <v>8</v>
@@ -4498,31 +4477,31 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D69" t="s">
+        <v>250</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="E69" s="3" t="s">
+      <c r="F69" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s">
         <v>252</v>
-      </c>
-      <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>253</v>
       </c>
       <c r="H69">
         <v>2011</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J69" s="3" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="K69" s="1">
         <v>8</v>
@@ -4533,34 +4512,34 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D70" t="s">
         <v>254</v>
       </c>
       <c r="E70" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" t="s">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s">
         <v>255</v>
       </c>
-      <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="H70">
+        <v>2018</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="H70">
-        <v>2011</v>
-      </c>
-      <c r="I70" t="s">
-        <v>17</v>
-      </c>
       <c r="J70" s="3" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="K70" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4568,34 +4547,34 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="D71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>260</v>
+      </c>
+      <c r="H71">
+        <v>2018</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>259</v>
-      </c>
-      <c r="H71">
-        <v>2011</v>
-      </c>
-      <c r="I71" t="s">
-        <v>17</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>238</v>
-      </c>
       <c r="K71" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4603,31 +4582,31 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G72" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H72">
         <v>2018</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="J72" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K72" s="1">
         <v>24</v>
@@ -4638,31 +4617,31 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H73">
         <v>2018</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J73" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K73" s="1">
         <v>24</v>
@@ -4673,31 +4652,31 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D74" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G74" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H74">
         <v>2018</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="J74" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K74" s="1">
         <v>24</v>
@@ -4708,31 +4687,31 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G75" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H75">
         <v>2018</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J75" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K75" s="1">
         <v>24</v>
@@ -4743,31 +4722,31 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H76">
         <v>2018</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J76" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K76" s="1">
         <v>24</v>
@@ -4778,31 +4757,31 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D77" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G77" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H77">
         <v>2018</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J77" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K77" s="1">
         <v>24</v>
@@ -4813,31 +4792,31 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D78" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G78" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H78">
         <v>2018</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J78" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K78" s="1">
         <v>24</v>
@@ -4848,31 +4827,31 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D79" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G79" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H79">
         <v>2018</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="J79" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K79" s="1">
         <v>24</v>
@@ -4883,31 +4862,31 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D80" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G80" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H80">
         <v>2018</v>
       </c>
       <c r="I80" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="J80" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K80" s="1">
         <v>24</v>
@@ -4918,31 +4897,31 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D81" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G81" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H81">
         <v>2018</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J81" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K81" s="1">
         <v>24</v>
@@ -4953,31 +4932,31 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D82" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G82" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H82">
         <v>2018</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J82" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K82" s="1">
         <v>24</v>
@@ -4988,31 +4967,31 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D83" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H83">
         <v>2018</v>
       </c>
       <c r="I83" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="J83" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K83" s="1">
         <v>24</v>
@@ -5023,31 +5002,31 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D84" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G84" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H84">
         <v>2018</v>
       </c>
       <c r="I84" s="3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="J84" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K84" s="1">
         <v>24</v>
@@ -5058,31 +5037,31 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D85" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G85" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H85">
         <v>2018</v>
       </c>
       <c r="I85" s="3" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="J85" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K85" s="1">
         <v>24</v>
@@ -5093,31 +5072,31 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G86" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="H86">
         <v>2018</v>
       </c>
       <c r="I86" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J86" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K86" s="1">
         <v>24</v>
@@ -5128,31 +5107,31 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C87" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D87" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G87" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H87">
         <v>2018</v>
       </c>
       <c r="I87" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="J87" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K87" s="1">
         <v>24</v>
@@ -5163,31 +5142,31 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C88" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D88" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G88" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H88">
         <v>2018</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="J88" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K88" s="1">
         <v>24</v>
@@ -5198,31 +5177,31 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C89" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D89" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G89" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H89">
         <v>2018</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="J89" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K89" s="1">
         <v>24</v>
@@ -5233,31 +5212,31 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H90">
         <v>2018</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="J90" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K90" s="1">
         <v>24</v>
@@ -5268,31 +5247,31 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C91" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D91" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G91" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H91">
         <v>2018</v>
       </c>
       <c r="I91" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J91" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K91" s="1">
         <v>24</v>
@@ -5303,31 +5282,31 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D92" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G92" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H92">
         <v>2018</v>
       </c>
       <c r="I92" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="J92" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K92" s="1">
         <v>24</v>
@@ -5338,236 +5317,161 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C93" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D93" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H93">
         <v>2018</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="J93" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="K93" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" t="s">
-        <v>260</v>
-      </c>
-      <c r="D94" t="s">
-        <v>349</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>351</v>
-      </c>
-      <c r="H94">
-        <v>2018</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K94" s="1">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" t="s">
-        <v>260</v>
-      </c>
-      <c r="D95" t="s">
-        <v>353</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>355</v>
-      </c>
-      <c r="H95">
-        <v>2018</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="K95" s="1">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A2:H56">
-    <sortCondition ref="D2"/>
-  </sortState>
   <hyperlinks>
-    <hyperlink ref="E19" r:id="rId1" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/01"/>
-    <hyperlink ref="E3:E8" r:id="rId1" display="https://menhood.320.io/files/%E7%94%B5%E8%A7%86%E6%A0%8F%E7%9B%AE/%E7%94%B5%E8%A7%86%E8%8A%82%E7%9B%AE%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B/%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B%20%E9%98%BF%E7%82%B31950%E5%B9%B4/01"/>
-    <hyperlink ref="E26" r:id="rId2" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/01"/>
-    <hyperlink ref="E10:E15" r:id="rId2" display="https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/12"/>
-    <hyperlink ref="E6" r:id="rId3" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%B8%AD%E5%9B%BD%E5%BD%B1%E5%83%8F%E6%96%B9%E5%BF%97/%E6%9D%BE%E6%BD%98/01"/>
-    <hyperlink ref="E7" r:id="rId4" display="https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/01"/>
-    <hyperlink ref="E18:E28" r:id="rId4" display="https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/09"/>
-    <hyperlink ref="E33" r:id="rId5" display="https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/01"/>
-    <hyperlink ref="E30:E52" r:id="rId5" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/05"/>
-    <hyperlink ref="E3" r:id="rId6" display="https://menhood.320.io/files/%E7%94%B5%E8%A7%86%E6%A0%8F%E7%9B%AE/%E7%94%B5%E8%A7%86%E8%8A%82%E7%9B%AE%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B/%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B%20%E9%98%BF%E7%82%B31950%E5%B9%B4/01"/>
-    <hyperlink ref="E2" r:id="rId7" display="https://menhood.320.io/files/%E7%94%B5%E8%A7%86%E6%A0%8F%E7%9B%AE/%E7%94%B5%E8%A7%86%E8%8A%82%E7%9B%AE%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B/%E3%80%8A%E8%AE%B0%E5%BF%86%E3%80%8B%20%E5%B7%B4%E9%87%911931%E5%B9%B4/01"/>
-    <hyperlink ref="E4" r:id="rId8" display="https://menhood.320.io/files/%E7%9F%AD%E7%89%87/1988-1998%E5%8D%8E%E8%AF%AD%E5%94%B1%E7%89%87%E7%9A%84%E9%BB%84%E9%87%91%E5%8D%81%E5%B9%B4%E9%87%91%E6%9B%B2/01"/>
-    <hyperlink ref="E5" r:id="rId9" display="https://menhood.320.io/files/%E5%BB%B6%E6%97%B6/COSMOSSpace/01"/>
-    <hyperlink ref="E57" r:id="rId10" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/01"/>
-    <hyperlink ref="E58:E63" r:id="rId10" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/02"/>
-    <hyperlink ref="E34:E56" r:id="rId5" display="https://menhood.320.io/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/02"/>
-    <hyperlink ref="I6" r:id="rId11" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=67933910"/>
-    <hyperlink ref="I7:I18" r:id="rId11" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57037134"/>
-    <hyperlink ref="I7" r:id="rId12" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57037134"/>
-    <hyperlink ref="I8" r:id="rId13" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958733"/>
-    <hyperlink ref="I9" r:id="rId14" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57047605"/>
-    <hyperlink ref="I10" r:id="rId15" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958441"/>
-    <hyperlink ref="I11" r:id="rId16" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958449"/>
-    <hyperlink ref="I12" r:id="rId17" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958457"/>
-    <hyperlink ref="I13" r:id="rId18" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56997160"/>
-    <hyperlink ref="I14" r:id="rId19" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958478"/>
-    <hyperlink ref="I15" r:id="rId20" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56981316"/>
-    <hyperlink ref="I16" r:id="rId21" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958498"/>
-    <hyperlink ref="I17" r:id="rId22" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958504"/>
-    <hyperlink ref="I18" r:id="rId23" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958513"/>
-    <hyperlink ref="E63" r:id="rId24" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/07"/>
-    <hyperlink ref="E64" r:id="rId25" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/01"/>
-    <hyperlink ref="I33" r:id="rId26" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572558"/>
-    <hyperlink ref="I34" r:id="rId27" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572656"/>
-    <hyperlink ref="I35" r:id="rId28" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572657"/>
-    <hyperlink ref="I36" r:id="rId29" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572663"/>
-    <hyperlink ref="I37" r:id="rId30" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572665"/>
-    <hyperlink ref="I38" r:id="rId31" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572670"/>
-    <hyperlink ref="I40" r:id="rId32" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572684"/>
-    <hyperlink ref="I42" r:id="rId33" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572692"/>
-    <hyperlink ref="I44" r:id="rId34" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572695"/>
-    <hyperlink ref="I46" r:id="rId35" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572761"/>
-    <hyperlink ref="I48" r:id="rId36" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11072419"/>
-    <hyperlink ref="I50" r:id="rId37" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11557935"/>
-    <hyperlink ref="I52" r:id="rId38" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11911660"/>
-    <hyperlink ref="I54" r:id="rId39" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12246783"/>
-    <hyperlink ref="I56" r:id="rId40" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47365070"/>
-    <hyperlink ref="I39" r:id="rId41" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572682"/>
-    <hyperlink ref="I41" r:id="rId42" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572686"/>
-    <hyperlink ref="I45" r:id="rId43" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572698"/>
-    <hyperlink ref="I47" r:id="rId44" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572765"/>
-    <hyperlink ref="I49" r:id="rId45" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11228469"/>
-    <hyperlink ref="I51" r:id="rId46" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11723079"/>
-    <hyperlink ref="I53" r:id="rId47" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12077709"/>
-    <hyperlink ref="I55" r:id="rId48" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12432506"/>
-    <hyperlink ref="I57" r:id="rId49" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47366904"/>
-    <hyperlink ref="I58" r:id="rId50" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47368877"/>
-    <hyperlink ref="I60" r:id="rId51" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47370586"/>
-    <hyperlink ref="I62" r:id="rId52" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846088"/>
-    <hyperlink ref="I59" r:id="rId51" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47370586"/>
-    <hyperlink ref="I61" r:id="rId53" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846078"/>
-    <hyperlink ref="I63" r:id="rId54" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=48037309"/>
-    <hyperlink ref="E65:E71" r:id="rId25" display="https://menhood.320.io/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/02"/>
-    <hyperlink ref="J7" r:id="rId55" display="https://i.loli.net/2019/01/05/5c301ab8bfcde.jpg"/>
-    <hyperlink ref="J8:J18" r:id="rId55" display="https://i.loli.net/2019/01/05/5c301ab8bfcde.jpg"/>
-    <hyperlink ref="J19" r:id="rId56" display="https://i.loli.net/2019/01/05/5c301b780c463.jpg"/>
-    <hyperlink ref="J20:J25" r:id="rId56" display="https://i.loli.net/2019/01/05/5c301b780c463.jpg"/>
-    <hyperlink ref="J26" r:id="rId57" display="https://i.loli.net/2019/01/05/5c301c4dbdeb4.jpg"/>
-    <hyperlink ref="J27:J32" r:id="rId57" display="https://i.loli.net/2019/01/05/5c301c4dbdeb4.jpg"/>
-    <hyperlink ref="J33" r:id="rId58" display="https://i.loli.net/2019/01/05/5c301ca300f19.jpg"/>
-    <hyperlink ref="J64" r:id="rId59" display="https://i.loli.net/2019/01/05/5c3020ebcfd0c.jpg"/>
-    <hyperlink ref="J65:J71" r:id="rId59" display="https://i.loli.net/2019/01/05/5c3020ebcfd0c.jpg"/>
-    <hyperlink ref="J57" r:id="rId60" display="https://i.loli.net/2019/01/05/5c30496ae0be7.jpg"/>
-    <hyperlink ref="J58:J63" r:id="rId60" display="https://i.loli.net/2019/01/05/5c30496ae0be7.jpg"/>
-    <hyperlink ref="E72" r:id="rId61" display="https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/01"/>
-    <hyperlink ref="E73:E95" r:id="rId61" display="https://menhood.320.io/files/动漫/DARLING%20in%20the%20FRANXX/02"/>
-    <hyperlink ref="I72" r:id="rId62" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=29892777"/>
-    <hyperlink ref="J72" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="I73" r:id="rId64" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=30219063"/>
-    <hyperlink ref="J73" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J74" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J76" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J78" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J80" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J82" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J84" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J86" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J88" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J90" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J92" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J94" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J75" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J77" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J79" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J81" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J83" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J85" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J87" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J89" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J91" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J93" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="J95" r:id="rId63" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
-    <hyperlink ref="I74" r:id="rId65" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=30670211"/>
-    <hyperlink ref="I75" r:id="rId66" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=31144490"/>
-    <hyperlink ref="I76" r:id="rId67" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=31692630"/>
-    <hyperlink ref="I77" r:id="rId68" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=32143511"/>
-    <hyperlink ref="I78" r:id="rId69" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=32618520"/>
-    <hyperlink ref="I79" r:id="rId70" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=33204555"/>
-    <hyperlink ref="I80" r:id="rId71" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=33712259"/>
-    <hyperlink ref="I81" r:id="rId72" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=34221660"/>
-    <hyperlink ref="I82" r:id="rId73" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=34768082"/>
-    <hyperlink ref="I83" r:id="rId74" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=35330667"/>
-    <hyperlink ref="I84" r:id="rId75" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=35955160"/>
-    <hyperlink ref="I85:I95" r:id="rId75" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=36514990"/>
-    <hyperlink ref="I85" r:id="rId76" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=36514990"/>
-    <hyperlink ref="I86" r:id="rId77" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=37096269"/>
-    <hyperlink ref="I87" r:id="rId78" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=38263183"/>
-    <hyperlink ref="I88" r:id="rId79" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=38862289"/>
-    <hyperlink ref="I89" r:id="rId80" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=39470873"/>
-    <hyperlink ref="I90" r:id="rId81" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=40120683"/>
-    <hyperlink ref="I91" r:id="rId82" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=41316760"/>
-    <hyperlink ref="I92" r:id="rId83" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=42332626"/>
-    <hyperlink ref="I93" r:id="rId84" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=43252925"/>
-    <hyperlink ref="I94" r:id="rId85" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=44248375"/>
-    <hyperlink ref="I95" r:id="rId86" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=45267295"/>
+    <hyperlink ref="E17" r:id="rId1" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%B8%80%E5%AD%A3/01"/>
+    <hyperlink ref="E2:E6" r:id="rId1" display="https://ddns.menhood.wang:2233/files/%E7%9F%AD%E7%89%87/1988-1998%E5%8D%8E%E8%AF%AD%E5%94%B1%E7%89%87%E7%9A%84%E9%BB%84%E9%87%91%E5%8D%81%E5%B9%B4%E9%87%91%E6%9B%B2/01"/>
+    <hyperlink ref="E24" r:id="rId2" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/01"/>
+    <hyperlink ref="E8:E13" r:id="rId2" display="https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/12"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%B8%AD%E5%9B%BD%E5%BD%B1%E5%83%8F%E6%96%B9%E5%BF%97/%E6%9D%BE%E6%BD%98/01"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/01"/>
+    <hyperlink ref="E16:E26" r:id="rId4" display="https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E6%9C%88%E5%88%8A%E5%B0%91%E5%A5%B3%E9%87%8E%E5%B4%8E%E5%90%9B/09"/>
+    <hyperlink ref="E31" r:id="rId5" display="https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/01"/>
+    <hyperlink ref="E28:E50" r:id="rId5" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E8%88%8C%E5%B0%96%E4%B8%8A%E7%9A%84%E4%B8%AD%E5%9B%BD/%E7%AC%AC%E4%BA%8C%E5%AD%A3/05"/>
+    <hyperlink ref="E2" r:id="rId6" display="https://ddns.menhood.wang:2233/files/%E7%9F%AD%E7%89%87/1988-1998%E5%8D%8E%E8%AF%AD%E5%94%B1%E7%89%87%E7%9A%84%E9%BB%84%E9%87%91%E5%8D%81%E5%B9%B4%E9%87%91%E6%9B%B2/01"/>
+    <hyperlink ref="E3" r:id="rId7" display="https://ddns.menhood.wang:2233/files/%E5%BB%B6%E6%97%B6/COSMOSSpace/01"/>
+    <hyperlink ref="E55" r:id="rId8" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/01"/>
+    <hyperlink ref="E56:E61" r:id="rId8" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/02"/>
+    <hyperlink ref="E32:E54" r:id="rId5" display="https://ddns.menhood.wang:2233/files/%E5%8A%A8%E6%BC%AB/%E9%BD%90%E6%9C%A8%E6%A5%A0%E9%9B%84%E7%9A%84%E7%81%BE%E9%9A%BE/02"/>
+    <hyperlink ref="I4" r:id="rId9" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=67933910"/>
+    <hyperlink ref="I5:I16" r:id="rId9" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57037134"/>
+    <hyperlink ref="I5" r:id="rId10" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57037134"/>
+    <hyperlink ref="I6" r:id="rId11" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958733"/>
+    <hyperlink ref="I7" r:id="rId12" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=57047605"/>
+    <hyperlink ref="I8" r:id="rId13" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958441"/>
+    <hyperlink ref="I9" r:id="rId14" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958449"/>
+    <hyperlink ref="I10" r:id="rId15" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958457"/>
+    <hyperlink ref="I11" r:id="rId16" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56997160"/>
+    <hyperlink ref="I12" r:id="rId17" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958478"/>
+    <hyperlink ref="I13" r:id="rId18" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56981316"/>
+    <hyperlink ref="I14" r:id="rId19" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958498"/>
+    <hyperlink ref="I15" r:id="rId20" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958504"/>
+    <hyperlink ref="I16" r:id="rId21" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=56958513"/>
+    <hyperlink ref="E61" r:id="rId22" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BC%A0%E6%89%BF/%E4%BC%A0%E6%89%BF%20%E7%AC%AC%E4%BA%8C%E5%AD%A3/07"/>
+    <hyperlink ref="E62" r:id="rId23" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/01"/>
+    <hyperlink ref="I31" r:id="rId24" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572558"/>
+    <hyperlink ref="I32" r:id="rId25" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572656"/>
+    <hyperlink ref="I33" r:id="rId26" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572657"/>
+    <hyperlink ref="I34" r:id="rId27" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572663"/>
+    <hyperlink ref="I35" r:id="rId28" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572665"/>
+    <hyperlink ref="I36" r:id="rId29" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572670"/>
+    <hyperlink ref="I38" r:id="rId30" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572684"/>
+    <hyperlink ref="I40" r:id="rId31" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572692"/>
+    <hyperlink ref="I42" r:id="rId32" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572695"/>
+    <hyperlink ref="I44" r:id="rId33" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572761"/>
+    <hyperlink ref="I46" r:id="rId34" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11072419"/>
+    <hyperlink ref="I48" r:id="rId35" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11557935"/>
+    <hyperlink ref="I50" r:id="rId36" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11911660"/>
+    <hyperlink ref="I52" r:id="rId37" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12246783"/>
+    <hyperlink ref="I54" r:id="rId38" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47365070"/>
+    <hyperlink ref="I37" r:id="rId39" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572682"/>
+    <hyperlink ref="I39" r:id="rId40" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572686"/>
+    <hyperlink ref="I43" r:id="rId41" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572698"/>
+    <hyperlink ref="I45" r:id="rId42" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11572765"/>
+    <hyperlink ref="I47" r:id="rId43" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11228469"/>
+    <hyperlink ref="I49" r:id="rId44" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=11723079"/>
+    <hyperlink ref="I51" r:id="rId45" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12077709"/>
+    <hyperlink ref="I53" r:id="rId46" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=12432506"/>
+    <hyperlink ref="I55" r:id="rId47" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47366904"/>
+    <hyperlink ref="I56" r:id="rId48" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47368877"/>
+    <hyperlink ref="I58" r:id="rId49" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47370586"/>
+    <hyperlink ref="I60" r:id="rId50" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846088"/>
+    <hyperlink ref="I57" r:id="rId49" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47370586"/>
+    <hyperlink ref="I59" r:id="rId51" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=47846078"/>
+    <hyperlink ref="I61" r:id="rId52" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=48037309"/>
+    <hyperlink ref="E63:E69" r:id="rId23" display="https://ddns.menhood.wang:2233/files/%E7%BA%AA%E5%BD%95%E7%89%87/%E4%BA%BA%E7%B1%BB%E6%98%9F%E7%90%83/02"/>
+    <hyperlink ref="J5" r:id="rId53" display="https://i.loli.net/2019/01/05/5c301ab8bfcde.jpg"/>
+    <hyperlink ref="J6:J16" r:id="rId53" display="https://i.loli.net/2019/01/05/5c301ab8bfcde.jpg"/>
+    <hyperlink ref="J17" r:id="rId54" display="https://i.loli.net/2019/01/05/5c301b780c463.jpg"/>
+    <hyperlink ref="J18:J23" r:id="rId54" display="https://i.loli.net/2019/01/05/5c301b780c463.jpg"/>
+    <hyperlink ref="J24" r:id="rId55" display="https://i.loli.net/2019/01/05/5c301c4dbdeb4.jpg"/>
+    <hyperlink ref="J25:J30" r:id="rId55" display="https://i.loli.net/2019/01/05/5c301c4dbdeb4.jpg"/>
+    <hyperlink ref="J31" r:id="rId56" display="https://i.loli.net/2019/01/05/5c301ca300f19.jpg"/>
+    <hyperlink ref="J62" r:id="rId57" display="https://i.loli.net/2019/01/05/5c3020ebcfd0c.jpg"/>
+    <hyperlink ref="J63:J69" r:id="rId57" display="https://i.loli.net/2019/01/05/5c3020ebcfd0c.jpg"/>
+    <hyperlink ref="J55" r:id="rId58" display="https://i.loli.net/2019/01/05/5c30496ae0be7.jpg"/>
+    <hyperlink ref="J56:J61" r:id="rId58" display="https://i.loli.net/2019/01/05/5c30496ae0be7.jpg"/>
+    <hyperlink ref="E70" r:id="rId59" display="https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/01"/>
+    <hyperlink ref="E71:E93" r:id="rId59" display="https://ddns.menhood.wang:2233/files/动漫/DARLING%20in%20the%20FRANXX/02"/>
+    <hyperlink ref="I70" r:id="rId60" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=29892777"/>
+    <hyperlink ref="J70" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="I71" r:id="rId62" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=30219063"/>
+    <hyperlink ref="J71" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J72" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J74" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J76" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J78" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J80" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J82" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J84" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J86" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J88" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J90" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J92" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J73" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J75" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J77" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J79" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J81" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J83" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J85" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J87" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J89" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J91" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="J93" r:id="rId61" display="https://i.loli.net/2019/01/08/5c344ea81f560.jpg"/>
+    <hyperlink ref="I72" r:id="rId63" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=30670211"/>
+    <hyperlink ref="I73" r:id="rId64" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=31144490"/>
+    <hyperlink ref="I74" r:id="rId65" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=31692630"/>
+    <hyperlink ref="I75" r:id="rId66" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=32143511"/>
+    <hyperlink ref="I76" r:id="rId67" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=32618520"/>
+    <hyperlink ref="I77" r:id="rId68" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=33204555"/>
+    <hyperlink ref="I78" r:id="rId69" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=33712259"/>
+    <hyperlink ref="I79" r:id="rId70" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=34221660"/>
+    <hyperlink ref="I80" r:id="rId71" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=34768082"/>
+    <hyperlink ref="I81" r:id="rId72" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=35330667"/>
+    <hyperlink ref="I82" r:id="rId73" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=35955160"/>
+    <hyperlink ref="I83:I93" r:id="rId73" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=36514990"/>
+    <hyperlink ref="I83" r:id="rId74" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=36514990"/>
+    <hyperlink ref="I84" r:id="rId75" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=37096269"/>
+    <hyperlink ref="I85" r:id="rId76" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=38263183"/>
+    <hyperlink ref="I86" r:id="rId77" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=38862289"/>
+    <hyperlink ref="I87" r:id="rId78" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=39470873"/>
+    <hyperlink ref="I88" r:id="rId79" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=40120683"/>
+    <hyperlink ref="I89" r:id="rId80" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=41316760"/>
+    <hyperlink ref="I90" r:id="rId81" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=42332626"/>
+    <hyperlink ref="I91" r:id="rId82" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=43252925"/>
+    <hyperlink ref="I92" r:id="rId83" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=44248375"/>
+    <hyperlink ref="I93" r:id="rId84" display="https://api.menhood.wang/dplayer/v3/bilibili/?cid=45267295"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180"/>
